--- a/figXX_compviz/hydrolight/Hydrolight_BrownWater.xlsx
+++ b/figXX_compviz/hydrolight/Hydrolight_BrownWater.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ugurcan/Desktop/Big Eye/hydrolight/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ugurcan/Documents/bigeye/figs/figXX_compviz/hydrolight/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14820" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-37280" yWindow="640" windowWidth="33500" windowHeight="20960" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Ku" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="b_Model" sheetId="9" r:id="rId6"/>
     <sheet name="Lu" sheetId="5" r:id="rId7"/>
     <sheet name="Lh" sheetId="6" r:id="rId8"/>
-    <sheet name="Ld" sheetId="7" r:id="rId9"/>
+    <sheet name="Lh_2" sheetId="10" r:id="rId9"/>
+    <sheet name="Ld" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2611,6 +2612,2477 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="S31" sqref="S31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>11</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4">
+        <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>14</v>
+      </c>
+      <c r="R4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>355</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.7629999999999999E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.7580000000000005E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.188E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.2080000000000001E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.078E-4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8.918E-6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7.0390000000000005E-7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5.3820000000000002E-8</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4.026E-9</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.9670000000000002E-10</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2.1639999999999999E-11</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.566E-12</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.127E-13</v>
+      </c>
+      <c r="O5" s="1">
+        <v>8.0769999999999993E-15</v>
+      </c>
+      <c r="P5" s="1">
+        <v>5.7750000000000002E-16</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>4.1210000000000002E-17</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2.9369999999999999E-18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>365</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.2330000000000002E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.6210000000000004E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.7059999999999999E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.2309999999999999E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.5460000000000001E-4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.69E-5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.7030000000000002E-6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.6300000000000001E-7</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.5019999999999998E-8</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.3440000000000002E-9</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2.1720000000000001E-10</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.997E-11</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1.8260000000000001E-12</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.6630000000000001E-13</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.5200000000000001E-14</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1.3779999999999999E-15</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1.2470000000000001E-16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>375</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.0130000000000001E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9.2179999999999998E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.0639999999999999E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.3519999999999999E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4.7219999999999999E-4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6.1389999999999993E-5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7.5909999999999998E-6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9.0800000000000003E-7</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.062E-7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.222E-8</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.39E-9</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.57E-10</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.7630000000000001E-11</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.971E-12</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2.1980000000000001E-13</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2.4460000000000001E-14</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2.718E-15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>385</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.2520000000000002E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.8179999999999999E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.146E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.1910000000000003E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7.0620000000000004E-4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.0959999999999999E-4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.6140000000000001E-5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.3E-6</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3.2020000000000002E-7</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4.3859999999999997E-8</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5.9410000000000001E-9</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7.9849999999999998E-10</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.067E-10</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1.42E-11</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1.8850000000000001E-12</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>2.4969999999999999E-13</v>
+      </c>
+      <c r="R8" s="1">
+        <v>3.3029999999999999E-14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>395</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5.0639999999999998E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9.3109999999999998E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.0450000000000001E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6.9360000000000003E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.3550000000000001E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.43E-4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4.1390000000000002E-5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7.1119999999999998E-6</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.145E-6</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.8129999999999999E-7</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2.8369999999999999E-8</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4.4029999999999998E-9</v>
+      </c>
+      <c r="N9" s="1">
+        <v>6.7949999999999998E-10</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1.045E-10</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1.6010000000000001E-11</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2.4490000000000002E-12</v>
+      </c>
+      <c r="R9" s="1">
+        <v>3.739E-13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>405</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6.9059999999999996E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.127</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.675E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.17E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.4940000000000001E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4.8720000000000002E-4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9.0229999999999995E-5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.6140000000000001E-5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.819E-6</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4.8469999999999999E-7</v>
+      </c>
+      <c r="L10" s="1">
+        <v>8.2409999999999995E-8</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.391E-8</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2.3330000000000001E-9</v>
+      </c>
+      <c r="O10" s="1">
+        <v>3.9009999999999998E-10</v>
+      </c>
+      <c r="P10" s="1">
+        <v>6.5040000000000002E-11</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1.082E-11</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1.7989999999999999E-12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>415</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7.0919999999999997E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5.3289999999999997E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.4409999999999999E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.2989999999999998E-3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6.9039999999999998E-4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.3679999999999999E-4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.6239999999999999E-5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4.9060000000000001E-6</v>
+      </c>
+      <c r="K11" s="1">
+        <v>9.0260000000000005E-7</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.6430000000000001E-7</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2.967E-8</v>
+      </c>
+      <c r="N11" s="1">
+        <v>5.3309999999999999E-9</v>
+      </c>
+      <c r="O11" s="1">
+        <v>9.5439999999999993E-10</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1.7050000000000001E-10</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3.0389999999999998E-11</v>
+      </c>
+      <c r="R11" s="1">
+        <v>5.4099999999999998E-12</v>
+      </c>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>425</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6.5979999999999997E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.12130000000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.5550000000000002E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.643E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4.0899999999999999E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9.2900000000000003E-4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.997E-4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4.1440000000000003E-5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>8.4009999999999997E-6</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.677E-6</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3.3099999999999999E-7</v>
+      </c>
+      <c r="M12" s="1">
+        <v>6.4879999999999996E-8</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1.2650000000000001E-8</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2.4589999999999999E-9</v>
+      </c>
+      <c r="P12" s="1">
+        <v>4.7680000000000005E-10</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>9.2280000000000003E-11</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1.784E-11</v>
+      </c>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>435</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6.5970000000000001E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.12130000000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6.0850000000000001E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.9310000000000001E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5.1349999999999998E-3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.2440000000000001E-3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.8489999999999999E-4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6.3009999999999995E-5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.361E-5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2.8949999999999998E-6</v>
+      </c>
+      <c r="L13" s="1">
+        <v>6.0930000000000004E-7</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1.2730000000000001E-7</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2.648E-8</v>
+      </c>
+      <c r="O13" s="1">
+        <v>5.4869999999999998E-9</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1.1349999999999999E-9</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>2.3419999999999998E-10</v>
+      </c>
+      <c r="R13" s="1">
+        <v>4.8290000000000002E-11</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>445</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7.5939999999999994E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.13969999999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7.9530000000000003E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.8209999999999999E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>8.3619999999999996E-3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.2550000000000001E-3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5.7499999999999999E-4</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.415E-4</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3.4029999999999998E-5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>8.0569999999999993E-6</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.888E-6</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4.3930000000000002E-7</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.017E-7</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2.3479999999999999E-8</v>
+      </c>
+      <c r="P14" s="1">
+        <v>5.4050000000000003E-9</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1.2420000000000001E-9</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2.8529999999999999E-10</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>455</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7.9409999999999994E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9.4020000000000006E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.7190000000000001E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.226E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3.6719999999999999E-3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2.8430000000000003E-4</v>
+      </c>
+      <c r="J15" s="1">
+        <v>7.5950000000000003E-5</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1.9979999999999998E-5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>5.203E-6</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1.345E-6</v>
+      </c>
+      <c r="N15" s="1">
+        <v>3.4610000000000001E-7</v>
+      </c>
+      <c r="O15" s="1">
+        <v>8.8790000000000003E-8</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2.2729999999999999E-8</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>5.8079999999999998E-9</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1.4829999999999999E-9</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>465</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7.7380000000000004E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.1008</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4.3240000000000001E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.541E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4.9919999999999999E-3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.5280000000000001E-3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4.5150000000000002E-4</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.304E-4</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3.7079999999999997E-5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.044E-5</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2.9249999999999999E-6</v>
+      </c>
+      <c r="N16" s="1">
+        <v>8.1409999999999996E-7</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2.258E-7</v>
+      </c>
+      <c r="P16" s="1">
+        <v>6.2499999999999997E-8</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1.728E-8</v>
+      </c>
+      <c r="R16" s="1">
+        <v>4.7699999999999999E-9</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>475</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7.3219999999999993E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.13469999999999999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.1172</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6.0429999999999998E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.5780000000000001E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>9.9869999999999994E-3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3.656E-3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.292E-3</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4.4650000000000001E-4</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1.5200000000000001E-4</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5.1239999999999997E-5</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.7159999999999998E-5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>5.7200000000000003E-6</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1.9010000000000001E-6</v>
+      </c>
+      <c r="P17" s="1">
+        <v>6.3040000000000003E-7</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2.0879999999999999E-7</v>
+      </c>
+      <c r="R17" s="1">
+        <v>6.9069999999999996E-8</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>485</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.15670000000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.048E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4.4409999999999996E-3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.585E-3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5.4960000000000002E-4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.8870000000000001E-4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>6.4449999999999994E-5</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2.1929999999999998E-5</v>
+      </c>
+      <c r="J18" s="1">
+        <v>7.4250000000000001E-6</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2.508E-6</v>
+      </c>
+      <c r="L18" s="1">
+        <v>8.4379999999999997E-7</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2.8340000000000001E-7</v>
+      </c>
+      <c r="N18" s="1">
+        <v>9.4889999999999998E-8</v>
+      </c>
+      <c r="O18" s="1">
+        <v>3.1699999999999999E-8</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1.057E-8</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>3.5170000000000002E-9</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1.169E-9</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>495</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.1278</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7.1340000000000001E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.3769999999999999E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5.4489999999999999E-3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.0820000000000001E-3</v>
+      </c>
+      <c r="J19" s="1">
+        <v>7.7789999999999999E-4</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2.8640000000000002E-4</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1.044E-4</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3.782E-5</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1.364E-5</v>
+      </c>
+      <c r="O19" s="1">
+        <v>4.9030000000000003E-6</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1.759E-6</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>6.3030000000000003E-7</v>
+      </c>
+      <c r="R19" s="1">
+        <v>2.2560000000000001E-7</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>505</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7.0660000000000001E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.1343</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8.0810000000000007E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4.0149999999999998E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>7.7140000000000004E-3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3.1749999999999999E-3</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.2780000000000001E-3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>5.0730000000000003E-4</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1.994E-4</v>
+      </c>
+      <c r="M20" s="1">
+        <v>7.784E-5</v>
+      </c>
+      <c r="N20" s="1">
+        <v>3.0260000000000002E-5</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1.173E-5</v>
+      </c>
+      <c r="P20" s="1">
+        <v>4.5379999999999996E-6</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1.753E-6</v>
+      </c>
+      <c r="R20" s="1">
+        <v>6.7660000000000001E-7</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>515</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6.7059999999999995E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.1234</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.1363</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8.7050000000000002E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4.5859999999999998E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2.1919999999999999E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>9.9080000000000001E-3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4.326E-3</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.848E-3</v>
+      </c>
+      <c r="K21" s="1">
+        <v>7.7789999999999999E-4</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3.2440000000000002E-4</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1.3439999999999999E-4</v>
+      </c>
+      <c r="N21" s="1">
+        <v>5.5510000000000002E-5</v>
+      </c>
+      <c r="O21" s="1">
+        <v>2.2840000000000002E-5</v>
+      </c>
+      <c r="P21" s="1">
+        <v>9.3780000000000007E-6</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>3.8460000000000001E-6</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1.576E-6</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>525</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6.7589999999999997E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.1244</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.1036</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5.9029999999999999E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3.0530000000000002E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.494E-2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>7.0609999999999996E-3</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3.2659999999999998E-3</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.49E-3</v>
+      </c>
+      <c r="L22" s="1">
+        <v>6.734E-4</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3.0249999999999998E-4</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1.3530000000000001E-4</v>
+      </c>
+      <c r="O22" s="1">
+        <v>6.0350000000000003E-5</v>
+      </c>
+      <c r="P22" s="1">
+        <v>2.6869999999999999E-5</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1.1950000000000001E-5</v>
+      </c>
+      <c r="R22" s="1">
+        <v>5.3070000000000002E-6</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>535</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6.7449999999999996E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.1242</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.1605</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.1182</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7.1720000000000006E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3.9489999999999997E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2.0570000000000001E-2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.0359999999999999E-2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>5.1060000000000003E-3</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2.4819999999999998E-3</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.196E-3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>5.7289999999999999E-4</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2.7329999999999998E-4</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="P23" s="1">
+        <v>6.1749999999999997E-5</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>2.9289999999999999E-5</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1.3879999999999999E-5</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>545</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6.5759999999999999E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.1211</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.1671</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>8.3779999999999993E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4.8840000000000001E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2.6950000000000002E-2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1.438E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>7.5139999999999998E-3</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3.8739999999999998E-3</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1.98E-3</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1.0059999999999999E-3</v>
+      </c>
+      <c r="N24" s="1">
+        <v>5.0929999999999997E-4</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2.5720000000000002E-4</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1.2960000000000001E-4</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>6.5270000000000004E-5</v>
+      </c>
+      <c r="R24" s="1">
+        <v>3.2830000000000002E-5</v>
+      </c>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>555</v>
+      </c>
+      <c r="B25" s="1">
+        <v>6.4610000000000001E-2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.17430000000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.14349999999999999</v>
+      </c>
+      <c r="F25" s="1">
+        <v>9.7210000000000005E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5.9760000000000001E-2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3.4790000000000001E-2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1.959E-2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1.081E-2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>5.8869999999999999E-3</v>
+      </c>
+      <c r="L25" s="1">
+        <v>3.179E-3</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1.707E-3</v>
+      </c>
+      <c r="N25" s="1">
+        <v>9.1310000000000002E-4</v>
+      </c>
+      <c r="O25" s="1">
+        <v>4.8730000000000003E-4</v>
+      </c>
+      <c r="P25" s="1">
+        <v>2.5970000000000002E-4</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1.382E-4</v>
+      </c>
+      <c r="R25" s="1">
+        <v>7.3490000000000003E-5</v>
+      </c>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>565</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6.336E-2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.1167</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.18049999999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.15640000000000001</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.1115</v>
+      </c>
+      <c r="G26" s="1">
+        <v>7.2120000000000004E-2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4.419E-2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2.6210000000000001E-2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1.524E-2</v>
+      </c>
+      <c r="K26" s="1">
+        <v>8.744E-3</v>
+      </c>
+      <c r="L26" s="1">
+        <v>4.9760000000000004E-3</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2.8170000000000001E-3</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1.5889999999999999E-3</v>
+      </c>
+      <c r="O26" s="1">
+        <v>8.943E-4</v>
+      </c>
+      <c r="P26" s="1">
+        <v>5.0270000000000002E-4</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>2.8219999999999997E-4</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1.583E-4</v>
+      </c>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>575</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6.2789999999999999E-2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.1157</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.1822</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.16059999999999999</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.1163</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7.6539999999999997E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4.7690000000000003E-2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2.8760000000000001E-2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K27" s="1">
+        <v>9.9170000000000005E-3</v>
+      </c>
+      <c r="L27" s="1">
+        <v>5.738E-3</v>
+      </c>
+      <c r="M27" s="1">
+        <v>3.3019999999999998E-3</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1.8940000000000001E-3</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1.083E-3</v>
+      </c>
+      <c r="P27" s="1">
+        <v>6.1890000000000003E-4</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>3.5320000000000002E-4</v>
+      </c>
+      <c r="R27" s="1">
+        <v>2.0139999999999999E-4</v>
+      </c>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>585</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.1118</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.10589999999999999</v>
+      </c>
+      <c r="G28" s="1">
+        <v>6.8260000000000001E-2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4.1660000000000003E-2</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2.46E-2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1.423E-2</v>
+      </c>
+      <c r="K28" s="1">
+        <v>8.1189999999999995E-3</v>
+      </c>
+      <c r="L28" s="1">
+        <v>4.594E-3</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2.5850000000000001E-3</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1.449E-3</v>
+      </c>
+      <c r="O28" s="1">
+        <v>8.1010000000000001E-4</v>
+      </c>
+      <c r="P28" s="1">
+        <v>4.5219999999999999E-4</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>2.521E-4</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1.405E-4</v>
+      </c>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>595</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5.7849999999999999E-2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.1065</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.1593</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>9.2579999999999996E-2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5.8069999999999997E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3.4459999999999998E-2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1.9769999999999999E-2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1.11E-2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>6.149E-3</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3.375E-3</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1.841E-3</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1.0009999999999999E-3</v>
+      </c>
+      <c r="O29" s="1">
+        <v>5.4239999999999996E-4</v>
+      </c>
+      <c r="P29" s="1">
+        <v>2.9339999999999998E-4</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1.585E-4</v>
+      </c>
+      <c r="R29" s="1">
+        <v>8.5580000000000004E-5</v>
+      </c>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>605</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5.9080000000000001E-2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.1469</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.1118</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7.0050000000000001E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3.9759999999999997E-2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2.1329999999999998E-2</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1.1050000000000001E-2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5.5960000000000003E-3</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2.7929999999999999E-3</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1.3810000000000001E-3</v>
+      </c>
+      <c r="M30" s="1">
+        <v>6.7790000000000005E-4</v>
+      </c>
+      <c r="N30" s="1">
+        <v>3.3139999999999998E-4</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1.615E-4</v>
+      </c>
+      <c r="P30" s="1">
+        <v>7.8540000000000004E-5</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>3.8139999999999997E-5</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1.8499999999999999E-5</v>
+      </c>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>615</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5.7279999999999998E-2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.14269999999999999</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="F31" s="1">
+        <v>6.9449999999999998E-2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3.9849999999999997E-2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2.1610000000000001E-2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1.1310000000000001E-2</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5.7860000000000003E-3</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2.9169999999999999E-3</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1.456E-3</v>
+      </c>
+      <c r="M31" s="1">
+        <v>7.2130000000000002E-4</v>
+      </c>
+      <c r="N31" s="1">
+        <v>3.5589999999999998E-4</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1.75E-4</v>
+      </c>
+      <c r="P31" s="1">
+        <v>8.5870000000000003E-5</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>4.2070000000000002E-5</v>
+      </c>
+      <c r="R31" s="1">
+        <v>2.0590000000000001E-5</v>
+      </c>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>625</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5.6230000000000002E-2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.1363</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.1027</v>
+      </c>
+      <c r="F32" s="1">
+        <v>6.3780000000000003E-2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3.5929999999999997E-2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1.9109999999999999E-2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>9.8119999999999995E-3</v>
+      </c>
+      <c r="J32" s="1">
+        <v>4.921E-3</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2.431E-3</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1.188E-3</v>
+      </c>
+      <c r="M32" s="1">
+        <v>5.7649999999999997E-4</v>
+      </c>
+      <c r="N32" s="1">
+        <v>2.7839999999999999E-4</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1.34E-4</v>
+      </c>
+      <c r="P32" s="1">
+        <v>6.4339999999999997E-5</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>3.0840000000000003E-5</v>
+      </c>
+      <c r="R32" s="1">
+        <v>1.4769999999999999E-5</v>
+      </c>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>635</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5.5190000000000003E-2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.1016</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="E33" s="1">
+        <v>9.4130000000000005E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5.6890000000000003E-2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3.1179999999999999E-2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1.6129999999999999E-2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>8.0510000000000009E-3</v>
+      </c>
+      <c r="J33" s="1">
+        <v>3.9240000000000004E-3</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1.882E-3</v>
+      </c>
+      <c r="L33" s="1">
+        <v>8.9280000000000002E-4</v>
+      </c>
+      <c r="M33" s="1">
+        <v>4.2039999999999997E-4</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1.9689999999999999E-4</v>
+      </c>
+      <c r="O33" s="1">
+        <v>9.1910000000000006E-5</v>
+      </c>
+      <c r="P33" s="1">
+        <v>4.278E-5</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>1.9879999999999999E-5</v>
+      </c>
+      <c r="R33" s="1">
+        <v>9.2250000000000006E-6</v>
+      </c>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>645</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5.3109999999999997E-2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>9.7739999999999994E-2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.1212</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8.7830000000000005E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5.2679999999999998E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2.8670000000000001E-2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1.473E-2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>7.2950000000000003E-3</v>
+      </c>
+      <c r="J34" s="1">
+        <v>3.5270000000000002E-3</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1.6770000000000001E-3</v>
+      </c>
+      <c r="L34" s="1">
+        <v>7.8879999999999998E-4</v>
+      </c>
+      <c r="M34" s="1">
+        <v>3.68E-4</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1.707E-4</v>
+      </c>
+      <c r="O34" s="1">
+        <v>7.8919999999999997E-5</v>
+      </c>
+      <c r="P34" s="1">
+        <v>3.6390000000000002E-5</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1.6739999999999999E-5</v>
+      </c>
+      <c r="R34" s="1">
+        <v>7.6920000000000002E-6</v>
+      </c>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>655</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5.0439999999999999E-2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>9.2810000000000004E-2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.106</v>
+      </c>
+      <c r="E35" s="1">
+        <v>7.1480000000000002E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3.9960000000000002E-2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2.0279999999999999E-2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>9.7099999999999999E-3</v>
+      </c>
+      <c r="I35" s="1">
+        <v>4.4799999999999996E-3</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2.0170000000000001E-3</v>
+      </c>
+      <c r="K35" s="1">
+        <v>8.9240000000000001E-4</v>
+      </c>
+      <c r="L35" s="1">
+        <v>3.903E-4</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1.693E-4</v>
+      </c>
+      <c r="N35" s="1">
+        <v>7.3009999999999994E-5</v>
+      </c>
+      <c r="O35" s="1">
+        <v>3.1359999999999998E-5</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1.343E-5</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>5.7420000000000003E-6</v>
+      </c>
+      <c r="R35" s="1">
+        <v>2.4530000000000001E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>665</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5.2310000000000002E-2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>9.6250000000000002E-2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>9.5619999999999997E-2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5.6480000000000002E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2.7709999999999999E-2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1.234E-2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5.1900000000000002E-3</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2.1029999999999998E-3</v>
+      </c>
+      <c r="J36" s="1">
+        <v>8.3180000000000005E-4</v>
+      </c>
+      <c r="K36" s="1">
+        <v>3.2390000000000001E-4</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1.249E-4</v>
+      </c>
+      <c r="M36" s="1">
+        <v>4.7889999999999997E-5</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1.8349999999999999E-5</v>
+      </c>
+      <c r="O36" s="1">
+        <v>7.0450000000000003E-6</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2.7240000000000001E-6</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1.065E-6</v>
+      </c>
+      <c r="R36" s="1">
+        <v>4.2329999999999999E-7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>675</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5.108E-2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>9.4009999999999996E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5.3560000000000003E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2.6009999999999998E-2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.149E-2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>4.7980000000000002E-3</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1.936E-3</v>
+      </c>
+      <c r="J37" s="1">
+        <v>7.6480000000000005E-4</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2.987E-4</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1.1629999999999999E-4</v>
+      </c>
+      <c r="M37" s="1">
+        <v>4.5399999999999999E-5</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1.7900000000000001E-5</v>
+      </c>
+      <c r="O37" s="1">
+        <v>7.1810000000000004E-6</v>
+      </c>
+      <c r="P37" s="1">
+        <v>2.9500000000000001E-6</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>1.249E-6</v>
+      </c>
+      <c r="R37" s="1">
+        <v>5.4750000000000005E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>685</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4.6390000000000001E-2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8.5940000000000003E-2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5.1909999999999998E-2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2.615E-2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1.1990000000000001E-2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>5.2050000000000004E-3</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2.1840000000000002E-3</v>
+      </c>
+      <c r="J38" s="1">
+        <v>8.9789999999999998E-4</v>
+      </c>
+      <c r="K38" s="1">
+        <v>3.6519999999999999E-4</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1.4799999999999999E-4</v>
+      </c>
+      <c r="M38" s="1">
+        <v>6.0229999999999998E-5</v>
+      </c>
+      <c r="N38" s="1">
+        <v>2.474E-5</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1.0319999999999999E-5</v>
+      </c>
+      <c r="P38" s="1">
+        <v>4.3959999999999999E-6</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1.922E-6</v>
+      </c>
+      <c r="R38" s="1">
+        <v>8.6550000000000001E-7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>695</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4.4450000000000003E-2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>8.1809999999999994E-2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8.1979999999999997E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5.0020000000000002E-2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2.5510000000000001E-2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1.1849999999999999E-2</v>
+      </c>
+      <c r="H39" s="1">
+        <v>5.202E-3</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2.2049999999999999E-3</v>
+      </c>
+      <c r="J39" s="1">
+        <v>9.1379999999999999E-4</v>
+      </c>
+      <c r="K39" s="1">
+        <v>3.7350000000000003E-4</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1.516E-4</v>
+      </c>
+      <c r="M39" s="1">
+        <v>6.1480000000000001E-5</v>
+      </c>
+      <c r="N39" s="1">
+        <v>2.5020000000000001E-5</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1.028E-5</v>
+      </c>
+      <c r="P39" s="1">
+        <v>4.2819999999999998E-6</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1.818E-6</v>
+      </c>
+      <c r="R39" s="1">
+        <v>7.9049999999999999E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>705</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4.4659999999999998E-2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>8.2159999999999997E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>7.3270000000000002E-2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4.0379999999999999E-2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1.865E-2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>7.8429999999999993E-3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3.117E-3</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1.194E-3</v>
+      </c>
+      <c r="J40" s="1">
+        <v>4.4670000000000002E-4</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1.6479999999999999E-4</v>
+      </c>
+      <c r="L40" s="1">
+        <v>6.0260000000000002E-5</v>
+      </c>
+      <c r="M40" s="1">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="N40" s="1">
+        <v>8.0739999999999993E-6</v>
+      </c>
+      <c r="O40" s="1">
+        <v>2.999E-6</v>
+      </c>
+      <c r="P40" s="1">
+        <v>1.1379999999999999E-6</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>4.447E-7</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1.807E-7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>715</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4.0550000000000003E-2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>7.4579999999999994E-2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5.0319999999999997E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>7.4219999999999998E-3</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2.3779999999999999E-3</v>
+      </c>
+      <c r="H41" s="1">
+        <v>7.1989999999999999E-4</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2.1019999999999999E-4</v>
+      </c>
+      <c r="J41" s="1">
+        <v>6.0019999999999998E-5</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1.696E-5</v>
+      </c>
+      <c r="L41" s="1">
+        <v>4.8099999999999997E-6</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1.393E-6</v>
+      </c>
+      <c r="N41" s="1">
+        <v>4.235E-7</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1.4000000000000001E-7</v>
+      </c>
+      <c r="P41" s="1">
+        <v>5.1989999999999998E-8</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>2.1889999999999999E-8</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1.027E-8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>725</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3.6240000000000001E-2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6.6650000000000001E-2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2.7619999999999999E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>7.1110000000000001E-3</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1.537E-3</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3.032E-4</v>
+      </c>
+      <c r="H42" s="1">
+        <v>5.6789999999999997E-5</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1.042E-5</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1.9649999999999998E-6</v>
+      </c>
+      <c r="K42" s="1">
+        <v>4.1940000000000001E-7</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1.173E-7</v>
+      </c>
+      <c r="M42" s="1">
+        <v>4.5540000000000003E-8</v>
+      </c>
+      <c r="N42" s="1">
+        <v>2.2029999999999999E-8</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1.172E-8</v>
+      </c>
+      <c r="P42" s="1">
+        <v>6.4460000000000003E-9</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>3.5849999999999999E-9</v>
+      </c>
+      <c r="R42" s="1">
+        <v>2.0019999999999999E-9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>735</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3.986E-2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>7.3289999999999994E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.5689999999999999E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2.0820000000000001E-3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2.33E-4</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2.421E-5</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2.6070000000000002E-6</v>
+      </c>
+      <c r="I43" s="1">
+        <v>3.939E-7</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1.1880000000000001E-7</v>
+      </c>
+      <c r="K43" s="1">
+        <v>5.6099999999999999E-8</v>
+      </c>
+      <c r="L43" s="1">
+        <v>2.9910000000000001E-8</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1.6339999999999999E-8</v>
+      </c>
+      <c r="N43" s="1">
+        <v>8.9749999999999993E-9</v>
+      </c>
+      <c r="O43" s="1">
+        <v>4.9399999999999999E-9</v>
+      </c>
+      <c r="P43" s="1">
+        <v>2.7229999999999998E-9</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>1.502E-9</v>
+      </c>
+      <c r="R43" s="1">
+        <v>8.2940000000000005E-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>745</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4.2180000000000002E-2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>7.7560000000000004E-2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.18E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1.116E-3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>8.9480000000000004E-5</v>
+      </c>
+      <c r="G44" s="1">
+        <v>6.878E-6</v>
+      </c>
+      <c r="H44" s="1">
+        <v>6.6909999999999998E-7</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1.48E-7</v>
+      </c>
+      <c r="J44" s="1">
+        <v>6.4630000000000004E-8</v>
+      </c>
+      <c r="K44" s="1">
+        <v>3.3519999999999998E-8</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1.7870000000000001E-8</v>
+      </c>
+      <c r="M44" s="1">
+        <v>9.5879999999999996E-9</v>
+      </c>
+      <c r="N44" s="1">
+        <v>5.1600000000000004E-9</v>
+      </c>
+      <c r="O44" s="1">
+        <v>2.783E-9</v>
+      </c>
+      <c r="P44" s="1">
+        <v>1.504E-9</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>8.1389999999999995E-10</v>
+      </c>
+      <c r="R44" s="1">
+        <v>4.4099999999999998E-10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D64" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
@@ -13590,8 +16062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L41" sqref="A1:Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29080,10 +31552,10 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I56" sqref="I56"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="A1:R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31489,25 +33961,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -31516,12 +33986,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -31577,2381 +34047,2449 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>355</v>
       </c>
       <c r="B5" s="1">
-        <v>4.7629999999999999E-2</v>
+        <v>0.15440000000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>8.7580000000000005E-2</v>
+        <v>3.4489999999999998E-3</v>
       </c>
       <c r="D5" s="1">
-        <v>1.188E-2</v>
+        <v>2.611E-4</v>
       </c>
       <c r="E5" s="1">
-        <v>1.2080000000000001E-3</v>
+        <v>1.4389999999999999E-5</v>
       </c>
       <c r="F5" s="1">
-        <v>1.078E-4</v>
+        <v>8.0849999999999997E-7</v>
       </c>
       <c r="G5" s="1">
-        <v>8.918E-6</v>
+        <v>4.7409999999999999E-8</v>
       </c>
       <c r="H5" s="1">
-        <v>7.0390000000000005E-7</v>
+        <v>2.9050000000000002E-9</v>
       </c>
       <c r="I5" s="1">
-        <v>5.3820000000000002E-8</v>
+        <v>1.8500000000000001E-10</v>
       </c>
       <c r="J5" s="1">
-        <v>4.026E-9</v>
+        <v>1.2129999999999999E-11</v>
       </c>
       <c r="K5" s="1">
-        <v>2.9670000000000002E-10</v>
+        <v>8.1369999999999996E-13</v>
       </c>
       <c r="L5" s="1">
-        <v>2.1639999999999999E-11</v>
+        <v>5.5440000000000002E-14</v>
       </c>
       <c r="M5" s="1">
-        <v>1.566E-12</v>
+        <v>3.8199999999999998E-15</v>
       </c>
       <c r="N5" s="1">
-        <v>1.127E-13</v>
+        <v>2.6529999999999999E-16</v>
       </c>
       <c r="O5" s="1">
-        <v>8.0769999999999993E-15</v>
+        <v>1.8529999999999999E-17</v>
       </c>
       <c r="P5" s="1">
-        <v>5.7750000000000002E-16</v>
+        <v>1.3E-18</v>
       </c>
       <c r="Q5" s="1">
-        <v>4.1210000000000002E-17</v>
+        <v>9.1430000000000004E-20</v>
       </c>
       <c r="R5" s="1">
-        <v>2.9369999999999999E-18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+        <v>6.4470000000000003E-21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>365</v>
       </c>
       <c r="B6" s="1">
-        <v>5.2330000000000002E-2</v>
+        <v>0.16980000000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>9.6210000000000004E-2</v>
+        <v>4.3699999999999998E-3</v>
       </c>
       <c r="D6" s="1">
-        <v>1.7059999999999999E-2</v>
+        <v>4.548E-4</v>
       </c>
       <c r="E6" s="1">
-        <v>2.2309999999999999E-3</v>
+        <v>3.2839999999999997E-5</v>
       </c>
       <c r="F6" s="1">
-        <v>2.5460000000000001E-4</v>
+        <v>2.384E-6</v>
       </c>
       <c r="G6" s="1">
-        <v>2.69E-5</v>
+        <v>1.79E-7</v>
       </c>
       <c r="H6" s="1">
-        <v>2.7030000000000002E-6</v>
+        <v>1.397E-8</v>
       </c>
       <c r="I6" s="1">
-        <v>2.6300000000000001E-7</v>
+        <v>1.1289999999999999E-9</v>
       </c>
       <c r="J6" s="1">
-        <v>2.5019999999999998E-8</v>
+        <v>9.3830000000000001E-11</v>
       </c>
       <c r="K6" s="1">
-        <v>2.3440000000000002E-9</v>
+        <v>7.9729999999999992E-12</v>
       </c>
       <c r="L6" s="1">
-        <v>2.1720000000000001E-10</v>
+        <v>6.8839999999999997E-13</v>
       </c>
       <c r="M6" s="1">
-        <v>1.997E-11</v>
+        <v>6.012E-14</v>
       </c>
       <c r="N6" s="1">
-        <v>1.8260000000000001E-12</v>
+        <v>5.2950000000000003E-15</v>
       </c>
       <c r="O6" s="1">
-        <v>1.6630000000000001E-13</v>
+        <v>4.6900000000000003E-16</v>
       </c>
       <c r="P6" s="1">
-        <v>1.5200000000000001E-14</v>
+        <v>4.2020000000000003E-17</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.3779999999999999E-15</v>
+        <v>3.7510000000000003E-18</v>
       </c>
       <c r="R6" s="1">
-        <v>1.2470000000000001E-16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3.3570000000000002E-19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>375</v>
       </c>
       <c r="B7" s="1">
-        <v>5.0130000000000001E-2</v>
+        <v>0.1628</v>
       </c>
       <c r="C7" s="1">
-        <v>9.2179999999999998E-2</v>
+        <v>4.8050000000000002E-3</v>
       </c>
       <c r="D7" s="1">
-        <v>2.0639999999999999E-2</v>
+        <v>6.5689999999999998E-4</v>
       </c>
       <c r="E7" s="1">
-        <v>3.3519999999999999E-3</v>
+        <v>5.9920000000000002E-5</v>
       </c>
       <c r="F7" s="1">
-        <v>4.7219999999999999E-4</v>
+        <v>5.4269999999999999E-6</v>
       </c>
       <c r="G7" s="1">
-        <v>6.1389999999999993E-5</v>
+        <v>5.0419999999999998E-7</v>
       </c>
       <c r="H7" s="1">
-        <v>7.5909999999999998E-6</v>
+        <v>4.8459999999999999E-8</v>
       </c>
       <c r="I7" s="1">
-        <v>9.0800000000000003E-7</v>
+        <v>4.8120000000000003E-9</v>
       </c>
       <c r="J7" s="1">
-        <v>1.062E-7</v>
+        <v>4.908E-10</v>
       </c>
       <c r="K7" s="1">
-        <v>1.222E-8</v>
+        <v>5.1139999999999997E-11</v>
       </c>
       <c r="L7" s="1">
-        <v>1.39E-9</v>
+        <v>5.4129999999999997E-12</v>
       </c>
       <c r="M7" s="1">
-        <v>1.57E-10</v>
+        <v>5.7959999999999997E-13</v>
       </c>
       <c r="N7" s="1">
-        <v>1.7630000000000001E-11</v>
+        <v>6.2600000000000006E-14</v>
       </c>
       <c r="O7" s="1">
-        <v>1.971E-12</v>
+        <v>6.8030000000000003E-15</v>
       </c>
       <c r="P7" s="1">
-        <v>2.1980000000000001E-13</v>
+        <v>7.4259999999999998E-16</v>
       </c>
       <c r="Q7" s="1">
-        <v>2.4460000000000001E-14</v>
+        <v>8.1350000000000005E-17</v>
       </c>
       <c r="R7" s="1">
-        <v>2.718E-15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+        <v>8.9330000000000002E-18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>385</v>
       </c>
       <c r="B8" s="1">
-        <v>4.2520000000000002E-2</v>
+        <v>0.13819999999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>7.8179999999999999E-2</v>
+        <v>4.6709999999999998E-3</v>
       </c>
       <c r="D8" s="1">
-        <v>2.146E-2</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="E8" s="1">
-        <v>4.1910000000000003E-3</v>
+        <v>8.9679999999999995E-5</v>
       </c>
       <c r="F8" s="1">
-        <v>7.0620000000000004E-4</v>
+        <v>9.8160000000000005E-6</v>
       </c>
       <c r="G8" s="1">
-        <v>1.0959999999999999E-4</v>
+        <v>1.0950000000000001E-6</v>
       </c>
       <c r="H8" s="1">
-        <v>1.6140000000000001E-5</v>
+        <v>1.258E-7</v>
       </c>
       <c r="I8" s="1">
-        <v>2.3E-6</v>
+        <v>1.488E-8</v>
       </c>
       <c r="J8" s="1">
-        <v>3.2020000000000002E-7</v>
+        <v>1.8070000000000001E-9</v>
       </c>
       <c r="K8" s="1">
-        <v>4.3859999999999997E-8</v>
+        <v>2.24E-10</v>
       </c>
       <c r="L8" s="1">
-        <v>5.9410000000000001E-9</v>
+        <v>2.8189999999999998E-11</v>
       </c>
       <c r="M8" s="1">
-        <v>7.9849999999999998E-10</v>
+        <v>3.5899999999999998E-12</v>
       </c>
       <c r="N8" s="1">
-        <v>1.067E-10</v>
+        <v>4.6119999999999999E-13</v>
       </c>
       <c r="O8" s="1">
-        <v>1.42E-11</v>
+        <v>5.9609999999999998E-14</v>
       </c>
       <c r="P8" s="1">
-        <v>1.8850000000000001E-12</v>
+        <v>7.742E-15</v>
       </c>
       <c r="Q8" s="1">
-        <v>2.4969999999999999E-13</v>
+        <v>1.009E-15</v>
       </c>
       <c r="R8" s="1">
-        <v>3.3029999999999999E-14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1.3179999999999999E-16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>395</v>
       </c>
       <c r="B9" s="1">
-        <v>5.0639999999999998E-2</v>
+        <v>0.16470000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>9.3109999999999998E-2</v>
+        <v>6.352E-3</v>
       </c>
       <c r="D9" s="1">
-        <v>3.0450000000000001E-2</v>
+        <v>1.3270000000000001E-3</v>
       </c>
       <c r="E9" s="1">
-        <v>6.9360000000000003E-3</v>
+        <v>1.7459999999999999E-4</v>
       </c>
       <c r="F9" s="1">
-        <v>1.3550000000000001E-3</v>
+        <v>2.2370000000000001E-5</v>
       </c>
       <c r="G9" s="1">
-        <v>2.43E-4</v>
+        <v>2.9040000000000001E-6</v>
       </c>
       <c r="H9" s="1">
-        <v>4.1390000000000002E-5</v>
+        <v>3.8710000000000002E-7</v>
       </c>
       <c r="I9" s="1">
-        <v>7.1119999999999998E-6</v>
+        <v>5.5430000000000001E-8</v>
       </c>
       <c r="J9" s="1">
-        <v>1.145E-6</v>
+        <v>7.7849999999999999E-9</v>
       </c>
       <c r="K9" s="1">
-        <v>1.8129999999999999E-7</v>
+        <v>1.115E-9</v>
       </c>
       <c r="L9" s="1">
-        <v>2.8369999999999999E-8</v>
+        <v>1.6209999999999999E-10</v>
       </c>
       <c r="M9" s="1">
-        <v>4.4029999999999998E-9</v>
+        <v>2.383E-11</v>
       </c>
       <c r="N9" s="1">
-        <v>6.7949999999999998E-10</v>
+        <v>3.537E-12</v>
       </c>
       <c r="O9" s="1">
-        <v>1.045E-10</v>
+        <v>5.2810000000000004E-13</v>
       </c>
       <c r="P9" s="1">
-        <v>1.6010000000000001E-11</v>
+        <v>7.9179999999999997E-14</v>
       </c>
       <c r="Q9" s="1">
-        <v>2.4490000000000002E-12</v>
+        <v>1.191E-14</v>
       </c>
       <c r="R9" s="1">
-        <v>3.739E-13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1.7969999999999998E-15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>405</v>
       </c>
       <c r="B10" s="1">
-        <v>6.9059999999999996E-2</v>
+        <v>0.2248</v>
       </c>
       <c r="C10" s="1">
-        <v>0.127</v>
+        <v>9.6489999999999996E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>4.675E-2</v>
+        <v>2.274E-3</v>
       </c>
       <c r="E10" s="1">
-        <v>1.17E-2</v>
+        <v>3.3040000000000001E-4</v>
       </c>
       <c r="F10" s="1">
-        <v>2.4940000000000001E-3</v>
+        <v>4.6480000000000002E-5</v>
       </c>
       <c r="G10" s="1">
-        <v>4.8720000000000002E-4</v>
+        <v>6.6030000000000001E-6</v>
       </c>
       <c r="H10" s="1">
-        <v>9.0229999999999995E-5</v>
+        <v>9.6089999999999998E-7</v>
       </c>
       <c r="I10" s="1">
-        <v>1.6140000000000001E-5</v>
+        <v>1.4350000000000001E-7</v>
       </c>
       <c r="J10" s="1">
-        <v>2.819E-6</v>
+        <v>2.1959999999999999E-8</v>
       </c>
       <c r="K10" s="1">
-        <v>4.8469999999999999E-7</v>
+        <v>3.4229999999999999E-9</v>
       </c>
       <c r="L10" s="1">
-        <v>8.2409999999999995E-8</v>
+        <v>5.4180000000000003E-10</v>
       </c>
       <c r="M10" s="1">
-        <v>1.391E-8</v>
+        <v>8.6740000000000002E-11</v>
       </c>
       <c r="N10" s="1">
-        <v>2.3330000000000001E-9</v>
+        <v>1.4E-11</v>
       </c>
       <c r="O10" s="1">
-        <v>3.9009999999999998E-10</v>
+        <v>2.2749999999999999E-12</v>
       </c>
       <c r="P10" s="1">
-        <v>6.5040000000000002E-11</v>
+        <v>3.7140000000000001E-13</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.082E-11</v>
+        <v>6.0830000000000004E-14</v>
       </c>
       <c r="R10" s="1">
-        <v>1.7989999999999999E-12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>9.991E-15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>415</v>
       </c>
       <c r="B11" s="1">
-        <v>7.0919999999999997E-2</v>
+        <v>0.2311</v>
       </c>
       <c r="C11" s="1">
-        <v>0.13039999999999999</v>
+        <v>1.099E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>5.3289999999999997E-2</v>
+        <v>2.8639999999999998E-3</v>
       </c>
       <c r="E11" s="1">
-        <v>1.4409999999999999E-2</v>
+        <v>4.5150000000000002E-4</v>
       </c>
       <c r="F11" s="1">
-        <v>3.2989999999999998E-3</v>
+        <v>6.8549999999999999E-5</v>
       </c>
       <c r="G11" s="1">
-        <v>6.9039999999999998E-4</v>
+        <v>1.048E-5</v>
       </c>
       <c r="H11" s="1">
-        <v>1.3679999999999999E-4</v>
+        <v>1.641E-6</v>
       </c>
       <c r="I11" s="1">
-        <v>2.6239999999999999E-5</v>
+        <v>2.6380000000000002E-7</v>
       </c>
       <c r="J11" s="1">
-        <v>4.9060000000000001E-6</v>
+        <v>4.3310000000000002E-8</v>
       </c>
       <c r="K11" s="1">
-        <v>9.0260000000000005E-7</v>
+        <v>7.2440000000000002E-9</v>
       </c>
       <c r="L11" s="1">
-        <v>1.6430000000000001E-7</v>
+        <v>1.2300000000000001E-9</v>
       </c>
       <c r="M11" s="1">
-        <v>2.967E-8</v>
+        <v>2.111E-10</v>
       </c>
       <c r="N11" s="1">
-        <v>5.3309999999999999E-9</v>
+        <v>3.6539999999999997E-11</v>
       </c>
       <c r="O11" s="1">
-        <v>9.5439999999999993E-10</v>
+        <v>6.3639999999999999E-12</v>
       </c>
       <c r="P11" s="1">
-        <v>1.7050000000000001E-10</v>
+        <v>1.1140000000000001E-12</v>
       </c>
       <c r="Q11" s="1">
-        <v>3.0389999999999998E-11</v>
+        <v>1.955E-13</v>
       </c>
       <c r="R11" s="1">
-        <v>5.4099999999999998E-12</v>
-      </c>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3.442E-14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>425</v>
       </c>
       <c r="B12" s="1">
-        <v>6.5979999999999997E-2</v>
+        <v>0.2152</v>
       </c>
       <c r="C12" s="1">
-        <v>0.12130000000000001</v>
+        <v>1.1390000000000001E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>5.5550000000000002E-2</v>
+        <v>3.3210000000000002E-3</v>
       </c>
       <c r="E12" s="1">
-        <v>1.643E-2</v>
+        <v>5.7689999999999998E-4</v>
       </c>
       <c r="F12" s="1">
-        <v>4.0899999999999999E-3</v>
+        <v>9.5940000000000006E-5</v>
       </c>
       <c r="G12" s="1">
-        <v>9.2900000000000003E-4</v>
+        <v>1.6019999999999999E-5</v>
       </c>
       <c r="H12" s="1">
-        <v>1.997E-4</v>
+        <v>2.7310000000000002E-6</v>
       </c>
       <c r="I12" s="1">
-        <v>4.1440000000000003E-5</v>
+        <v>4.7700000000000005E-7</v>
       </c>
       <c r="J12" s="1">
-        <v>8.4009999999999997E-6</v>
+        <v>8.5179999999999999E-8</v>
       </c>
       <c r="K12" s="1">
-        <v>1.677E-6</v>
+        <v>1.5489999999999998E-8</v>
       </c>
       <c r="L12" s="1">
-        <v>3.3099999999999999E-7</v>
+        <v>2.8579999999999999E-9</v>
       </c>
       <c r="M12" s="1">
-        <v>6.4879999999999996E-8</v>
+        <v>5.3319999999999998E-10</v>
       </c>
       <c r="N12" s="1">
-        <v>1.2650000000000001E-8</v>
+        <v>1.0030000000000001E-10</v>
       </c>
       <c r="O12" s="1">
-        <v>2.4589999999999999E-9</v>
+        <v>1.897E-11</v>
       </c>
       <c r="P12" s="1">
-        <v>4.7680000000000005E-10</v>
+        <v>3.6069999999999999E-12</v>
       </c>
       <c r="Q12" s="1">
-        <v>9.2280000000000003E-11</v>
+        <v>6.8790000000000003E-13</v>
       </c>
       <c r="R12" s="1">
-        <v>1.784E-11</v>
-      </c>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1.315E-13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>435</v>
       </c>
       <c r="B13" s="1">
-        <v>6.5970000000000001E-2</v>
+        <v>0.21529999999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>0.12130000000000001</v>
+        <v>1.244E-2</v>
       </c>
       <c r="D13" s="1">
-        <v>6.0850000000000001E-2</v>
+        <v>3.9569999999999996E-3</v>
       </c>
       <c r="E13" s="1">
-        <v>1.9310000000000001E-2</v>
+        <v>7.4180000000000003E-4</v>
       </c>
       <c r="F13" s="1">
-        <v>5.1349999999999998E-3</v>
+        <v>1.325E-4</v>
       </c>
       <c r="G13" s="1">
-        <v>1.2440000000000001E-3</v>
+        <v>2.37E-5</v>
       </c>
       <c r="H13" s="1">
-        <v>2.8489999999999999E-4</v>
+        <v>4.3209999999999998E-6</v>
       </c>
       <c r="I13" s="1">
-        <v>6.3009999999999995E-5</v>
+        <v>8.0930000000000003E-7</v>
       </c>
       <c r="J13" s="1">
-        <v>1.361E-5</v>
+        <v>1.5419999999999999E-7</v>
       </c>
       <c r="K13" s="1">
-        <v>2.8949999999999998E-6</v>
+        <v>2.9900000000000003E-8</v>
       </c>
       <c r="L13" s="1">
-        <v>6.0930000000000004E-7</v>
+        <v>5.8919999999999999E-9</v>
       </c>
       <c r="M13" s="1">
-        <v>1.2730000000000001E-7</v>
+        <v>1.177E-9</v>
       </c>
       <c r="N13" s="1">
-        <v>2.648E-8</v>
+        <v>2.358E-10</v>
       </c>
       <c r="O13" s="1">
-        <v>5.4869999999999998E-9</v>
+        <v>4.7539999999999998E-11</v>
       </c>
       <c r="P13" s="1">
-        <v>1.1349999999999999E-9</v>
+        <v>9.63E-12</v>
       </c>
       <c r="Q13" s="1">
-        <v>2.3419999999999998E-10</v>
+        <v>1.9579999999999999E-12</v>
       </c>
       <c r="R13" s="1">
-        <v>4.8290000000000002E-11</v>
-      </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3.9909999999999999E-13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>445</v>
       </c>
       <c r="B14" s="1">
-        <v>7.5939999999999994E-2</v>
+        <v>0.24809999999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>0.13969999999999999</v>
+        <v>1.5939999999999999E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>7.9530000000000003E-2</v>
+        <v>5.8120000000000003E-3</v>
       </c>
       <c r="E14" s="1">
-        <v>2.8209999999999999E-2</v>
+        <v>1.2359999999999999E-3</v>
       </c>
       <c r="F14" s="1">
-        <v>8.3619999999999996E-3</v>
+        <v>2.4889999999999998E-4</v>
       </c>
       <c r="G14" s="1">
-        <v>2.2550000000000001E-3</v>
+        <v>4.9950000000000001E-5</v>
       </c>
       <c r="H14" s="1">
-        <v>5.7499999999999999E-4</v>
+        <v>1.0190000000000001E-5</v>
       </c>
       <c r="I14" s="1">
-        <v>1.415E-4</v>
+        <v>2.1210000000000001E-6</v>
       </c>
       <c r="J14" s="1">
-        <v>3.4029999999999998E-5</v>
+        <v>4.5069999999999998E-7</v>
       </c>
       <c r="K14" s="1">
-        <v>8.0569999999999993E-6</v>
+        <v>9.7469999999999999E-8</v>
       </c>
       <c r="L14" s="1">
-        <v>1.888E-6</v>
+        <v>2.1369999999999999E-8</v>
       </c>
       <c r="M14" s="1">
-        <v>4.3930000000000002E-7</v>
+        <v>4.7360000000000002E-9</v>
       </c>
       <c r="N14" s="1">
-        <v>1.017E-7</v>
+        <v>1.0580000000000001E-9</v>
       </c>
       <c r="O14" s="1">
-        <v>2.3479999999999999E-8</v>
+        <v>2.378E-10</v>
       </c>
       <c r="P14" s="1">
-        <v>5.4050000000000003E-9</v>
+        <v>5.3699999999999999E-11</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.2420000000000001E-9</v>
+        <v>1.216E-11</v>
       </c>
       <c r="R14" s="1">
-        <v>2.8529999999999999E-10</v>
-      </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2.7629999999999998E-12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>455</v>
       </c>
       <c r="B15" s="1">
-        <v>7.9409999999999994E-2</v>
+        <v>0.2596</v>
       </c>
       <c r="C15" s="1">
-        <v>0.14610000000000001</v>
+        <v>1.8610000000000002E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>9.4020000000000006E-2</v>
+        <v>7.7320000000000002E-3</v>
       </c>
       <c r="E15" s="1">
-        <v>3.7190000000000001E-2</v>
+        <v>1.8630000000000001E-3</v>
       </c>
       <c r="F15" s="1">
-        <v>1.226E-2</v>
+        <v>4.2200000000000001E-4</v>
       </c>
       <c r="G15" s="1">
-        <v>3.6719999999999999E-3</v>
+        <v>9.4900000000000003E-5</v>
       </c>
       <c r="H15" s="1">
-        <v>1.0399999999999999E-3</v>
+        <v>2.1610000000000001E-5</v>
       </c>
       <c r="I15" s="1">
-        <v>2.8430000000000003E-4</v>
+        <v>5.0159999999999999E-6</v>
       </c>
       <c r="J15" s="1">
-        <v>7.5950000000000003E-5</v>
+        <v>1.186E-6</v>
       </c>
       <c r="K15" s="1">
-        <v>1.9979999999999998E-5</v>
+        <v>2.8529999999999999E-7</v>
       </c>
       <c r="L15" s="1">
-        <v>5.203E-6</v>
+        <v>6.9530000000000001E-8</v>
       </c>
       <c r="M15" s="1">
-        <v>1.345E-6</v>
+        <v>1.712E-8</v>
       </c>
       <c r="N15" s="1">
-        <v>3.4610000000000001E-7</v>
+        <v>4.2510000000000003E-9</v>
       </c>
       <c r="O15" s="1">
-        <v>8.8790000000000003E-8</v>
+        <v>1.0620000000000001E-9</v>
       </c>
       <c r="P15" s="1">
-        <v>2.2729999999999999E-8</v>
+        <v>2.6650000000000001E-10</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.8079999999999998E-9</v>
+        <v>6.7100000000000006E-11</v>
       </c>
       <c r="R15" s="1">
-        <v>1.4829999999999999E-9</v>
-      </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1.6939999999999999E-11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>465</v>
       </c>
       <c r="B16" s="1">
-        <v>7.7380000000000004E-2</v>
+        <v>0.25319999999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>0.14230000000000001</v>
+        <v>1.993E-2</v>
       </c>
       <c r="D16" s="1">
-        <v>0.1008</v>
+        <v>9.1140000000000006E-3</v>
       </c>
       <c r="E16" s="1">
-        <v>4.3240000000000001E-2</v>
+        <v>2.4090000000000001E-3</v>
       </c>
       <c r="F16" s="1">
-        <v>1.541E-2</v>
+        <v>5.9590000000000001E-4</v>
       </c>
       <c r="G16" s="1">
-        <v>4.9919999999999999E-3</v>
+        <v>1.4579999999999999E-4</v>
       </c>
       <c r="H16" s="1">
-        <v>1.5280000000000001E-3</v>
+        <v>3.6050000000000002E-5</v>
       </c>
       <c r="I16" s="1">
-        <v>4.5150000000000002E-4</v>
+        <v>9.0690000000000008E-6</v>
       </c>
       <c r="J16" s="1">
-        <v>1.304E-4</v>
+        <v>2.322E-6</v>
       </c>
       <c r="K16" s="1">
-        <v>3.7079999999999997E-5</v>
+        <v>6.0439999999999999E-7</v>
       </c>
       <c r="L16" s="1">
-        <v>1.044E-5</v>
+        <v>1.5940000000000001E-7</v>
       </c>
       <c r="M16" s="1">
-        <v>2.9249999999999999E-6</v>
+        <v>4.2550000000000001E-8</v>
       </c>
       <c r="N16" s="1">
-        <v>8.1409999999999996E-7</v>
+        <v>1.1420000000000001E-8</v>
       </c>
       <c r="O16" s="1">
-        <v>2.258E-7</v>
+        <v>3.0859999999999999E-9</v>
       </c>
       <c r="P16" s="1">
-        <v>6.2499999999999997E-8</v>
+        <v>8.3749999999999995E-10</v>
       </c>
       <c r="Q16" s="1">
-        <v>1.728E-8</v>
+        <v>2.2809999999999999E-10</v>
       </c>
       <c r="R16" s="1">
-        <v>4.7699999999999999E-9</v>
-      </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+        <v>6.2269999999999995E-11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>475</v>
       </c>
       <c r="B17" s="1">
-        <v>7.3219999999999993E-2</v>
+        <v>0.25219999999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>0.13469999999999999</v>
+        <v>2.215E-2</v>
       </c>
       <c r="D17" s="1">
-        <v>0.1172</v>
+        <v>1.136E-2</v>
       </c>
       <c r="E17" s="1">
-        <v>6.0429999999999998E-2</v>
+        <v>3.3670000000000002E-3</v>
       </c>
       <c r="F17" s="1">
-        <v>2.5780000000000001E-2</v>
+        <v>9.2820000000000001E-4</v>
       </c>
       <c r="G17" s="1">
-        <v>9.9869999999999994E-3</v>
+        <v>2.521E-4</v>
       </c>
       <c r="H17" s="1">
-        <v>3.656E-3</v>
+        <v>6.8979999999999993E-5</v>
       </c>
       <c r="I17" s="1">
-        <v>1.292E-3</v>
+        <v>1.9170000000000001E-5</v>
       </c>
       <c r="J17" s="1">
-        <v>4.4650000000000001E-4</v>
+        <v>5.4129999999999997E-6</v>
       </c>
       <c r="K17" s="1">
-        <v>1.5200000000000001E-4</v>
+        <v>1.5519999999999999E-6</v>
       </c>
       <c r="L17" s="1">
-        <v>5.1239999999999997E-5</v>
+        <v>4.5069999999999998E-7</v>
       </c>
       <c r="M17" s="1">
-        <v>1.7159999999999998E-5</v>
+        <v>1.3220000000000001E-7</v>
       </c>
       <c r="N17" s="1">
-        <v>5.7200000000000003E-6</v>
+        <v>3.9069999999999998E-8</v>
       </c>
       <c r="O17" s="1">
-        <v>1.9010000000000001E-6</v>
+        <v>1.1620000000000001E-8</v>
       </c>
       <c r="P17" s="1">
-        <v>6.3040000000000003E-7</v>
+        <v>3.472E-9</v>
       </c>
       <c r="Q17" s="1">
-        <v>2.0879999999999999E-7</v>
+        <v>1.041E-9</v>
       </c>
       <c r="R17" s="1">
-        <v>6.9069999999999996E-8</v>
-      </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3.1309999999999998E-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>485</v>
       </c>
       <c r="B18" s="1">
-        <v>0.15670000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="C18" s="1">
-        <v>1.048E-2</v>
+        <v>2.3359999999999999E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>4.4409999999999996E-3</v>
+        <v>1.3220000000000001E-2</v>
       </c>
       <c r="E18" s="1">
-        <v>1.585E-3</v>
+        <v>4.3319999999999999E-3</v>
       </c>
       <c r="F18" s="1">
-        <v>5.4960000000000002E-4</v>
+        <v>1.3140000000000001E-3</v>
       </c>
       <c r="G18" s="1">
-        <v>1.8870000000000001E-4</v>
+        <v>3.9140000000000003E-4</v>
       </c>
       <c r="H18" s="1">
-        <v>6.4449999999999994E-5</v>
+        <v>1.171E-4</v>
       </c>
       <c r="I18" s="1">
-        <v>2.1929999999999998E-5</v>
+        <v>3.5490000000000001E-5</v>
       </c>
       <c r="J18" s="1">
-        <v>7.4250000000000001E-6</v>
+        <v>1.093E-5</v>
       </c>
       <c r="K18" s="1">
-        <v>2.508E-6</v>
+        <v>3.4139999999999998E-6</v>
       </c>
       <c r="L18" s="1">
-        <v>8.4379999999999997E-7</v>
+        <v>1.08E-6</v>
       </c>
       <c r="M18" s="1">
-        <v>2.8340000000000001E-7</v>
+        <v>3.446E-7</v>
       </c>
       <c r="N18" s="1">
-        <v>9.4889999999999998E-8</v>
+        <v>1.108E-7</v>
       </c>
       <c r="O18" s="1">
-        <v>3.1699999999999999E-8</v>
+        <v>3.5859999999999998E-8</v>
       </c>
       <c r="P18" s="1">
-        <v>1.057E-8</v>
+        <v>1.165E-8</v>
       </c>
       <c r="Q18" s="1">
-        <v>3.5170000000000002E-9</v>
+        <v>3.8019999999999999E-9</v>
       </c>
       <c r="R18" s="1">
-        <v>1.169E-9</v>
-      </c>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1.2429999999999999E-9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>495</v>
       </c>
       <c r="B19" s="1">
-        <v>7.3099999999999998E-2</v>
+        <v>0.2399</v>
       </c>
       <c r="C19" s="1">
-        <v>0.13450000000000001</v>
+        <v>2.5760000000000002E-2</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1278</v>
+        <v>1.5949999999999999E-2</v>
       </c>
       <c r="E19" s="1">
-        <v>7.1340000000000001E-2</v>
+        <v>5.7419999999999997E-3</v>
       </c>
       <c r="F19" s="1">
-        <v>3.2899999999999999E-2</v>
+        <v>1.905E-3</v>
       </c>
       <c r="G19" s="1">
-        <v>1.3769999999999999E-2</v>
+        <v>6.1839999999999996E-4</v>
       </c>
       <c r="H19" s="1">
-        <v>5.4489999999999999E-3</v>
+        <v>2.0110000000000001E-4</v>
       </c>
       <c r="I19" s="1">
-        <v>2.0820000000000001E-3</v>
+        <v>6.614E-5</v>
       </c>
       <c r="J19" s="1">
-        <v>7.7789999999999999E-4</v>
+        <v>2.2059999999999999E-5</v>
       </c>
       <c r="K19" s="1">
-        <v>2.8640000000000002E-4</v>
+        <v>7.4599999999999997E-6</v>
       </c>
       <c r="L19" s="1">
-        <v>1.044E-4</v>
+        <v>2.5519999999999999E-6</v>
       </c>
       <c r="M19" s="1">
-        <v>3.782E-5</v>
+        <v>8.8120000000000003E-7</v>
       </c>
       <c r="N19" s="1">
-        <v>1.364E-5</v>
+        <v>3.0660000000000001E-7</v>
       </c>
       <c r="O19" s="1">
-        <v>4.9030000000000003E-6</v>
+        <v>1.073E-7</v>
       </c>
       <c r="P19" s="1">
-        <v>1.759E-6</v>
+        <v>3.7739999999999999E-8</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.3030000000000003E-7</v>
+        <v>1.3319999999999999E-8</v>
       </c>
       <c r="R19" s="1">
-        <v>2.2560000000000001E-7</v>
-      </c>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+        <v>4.7120000000000003E-9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>505</v>
       </c>
       <c r="B20" s="1">
-        <v>7.0660000000000001E-2</v>
+        <v>0.2321</v>
       </c>
       <c r="C20" s="1">
-        <v>0.13</v>
+        <v>2.7519999999999999E-2</v>
       </c>
       <c r="D20" s="1">
-        <v>0.1343</v>
+        <v>1.8519999999999998E-2</v>
       </c>
       <c r="E20" s="1">
-        <v>8.0810000000000007E-2</v>
+        <v>7.2989999999999999E-3</v>
       </c>
       <c r="F20" s="1">
-        <v>4.0149999999999998E-2</v>
+        <v>2.64E-3</v>
       </c>
       <c r="G20" s="1">
-        <v>1.8100000000000002E-2</v>
+        <v>9.3079999999999997E-4</v>
       </c>
       <c r="H20" s="1">
-        <v>7.7140000000000004E-3</v>
+        <v>3.28E-4</v>
       </c>
       <c r="I20" s="1">
-        <v>3.1749999999999999E-3</v>
+        <v>1.167E-4</v>
       </c>
       <c r="J20" s="1">
-        <v>1.2780000000000001E-3</v>
+        <v>4.2030000000000002E-5</v>
       </c>
       <c r="K20" s="1">
-        <v>5.0730000000000003E-4</v>
+        <v>1.5339999999999999E-5</v>
       </c>
       <c r="L20" s="1">
-        <v>1.994E-4</v>
+        <v>5.6590000000000004E-6</v>
       </c>
       <c r="M20" s="1">
-        <v>7.784E-5</v>
+        <v>2.1069999999999999E-6</v>
       </c>
       <c r="N20" s="1">
-        <v>3.0260000000000002E-5</v>
+        <v>7.9049999999999999E-7</v>
       </c>
       <c r="O20" s="1">
-        <v>1.173E-5</v>
+        <v>2.9830000000000002E-7</v>
       </c>
       <c r="P20" s="1">
-        <v>4.5379999999999996E-6</v>
+        <v>1.131E-7</v>
       </c>
       <c r="Q20" s="1">
-        <v>1.753E-6</v>
+        <v>4.3009999999999999E-8</v>
       </c>
       <c r="R20" s="1">
-        <v>6.7660000000000001E-7</v>
-      </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1.6409999999999999E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>515</v>
       </c>
       <c r="B21" s="1">
-        <v>6.7059999999999995E-2</v>
+        <v>0.2205</v>
       </c>
       <c r="C21" s="1">
-        <v>0.1234</v>
+        <v>2.8479999999999998E-2</v>
       </c>
       <c r="D21" s="1">
-        <v>0.1363</v>
+        <v>2.043E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>8.7050000000000002E-2</v>
+        <v>8.652E-3</v>
       </c>
       <c r="F21" s="1">
-        <v>4.5859999999999998E-2</v>
+        <v>3.3500000000000001E-3</v>
       </c>
       <c r="G21" s="1">
-        <v>2.1919999999999999E-2</v>
+        <v>1.2620000000000001E-3</v>
       </c>
       <c r="H21" s="1">
-        <v>9.9080000000000001E-3</v>
+        <v>4.7380000000000002E-4</v>
       </c>
       <c r="I21" s="1">
-        <v>4.326E-3</v>
+        <v>1.7929999999999999E-4</v>
       </c>
       <c r="J21" s="1">
-        <v>1.848E-3</v>
+        <v>6.8689999999999995E-5</v>
       </c>
       <c r="K21" s="1">
-        <v>7.7789999999999999E-4</v>
+        <v>2.6619999999999999E-5</v>
       </c>
       <c r="L21" s="1">
-        <v>3.2440000000000002E-4</v>
+        <v>1.043E-5</v>
       </c>
       <c r="M21" s="1">
-        <v>1.3439999999999999E-4</v>
+        <v>4.1239999999999998E-6</v>
       </c>
       <c r="N21" s="1">
-        <v>5.5510000000000002E-5</v>
+        <v>1.643E-6</v>
       </c>
       <c r="O21" s="1">
-        <v>2.2840000000000002E-5</v>
+        <v>6.581E-7</v>
       </c>
       <c r="P21" s="1">
-        <v>9.3780000000000007E-6</v>
+        <v>2.6479999999999999E-7</v>
       </c>
       <c r="Q21" s="1">
-        <v>3.8460000000000001E-6</v>
+        <v>1.069E-7</v>
       </c>
       <c r="R21" s="1">
-        <v>1.576E-6</v>
-      </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+        <v>4.3280000000000001E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>525</v>
       </c>
       <c r="B22" s="1">
-        <v>6.7589999999999997E-2</v>
+        <v>0.22259999999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>0.1244</v>
+        <v>3.2289999999999999E-2</v>
       </c>
       <c r="D22" s="1">
-        <v>0.14979999999999999</v>
+        <v>2.5219999999999999E-2</v>
       </c>
       <c r="E22" s="1">
-        <v>0.1036</v>
+        <v>1.1780000000000001E-2</v>
       </c>
       <c r="F22" s="1">
-        <v>5.9029999999999999E-2</v>
+        <v>5.0080000000000003E-3</v>
       </c>
       <c r="G22" s="1">
-        <v>3.0530000000000002E-2</v>
+        <v>2.0630000000000002E-3</v>
       </c>
       <c r="H22" s="1">
-        <v>1.494E-2</v>
+        <v>8.4520000000000005E-4</v>
       </c>
       <c r="I22" s="1">
-        <v>7.0609999999999996E-3</v>
+        <v>3.4830000000000001E-4</v>
       </c>
       <c r="J22" s="1">
-        <v>3.2659999999999998E-3</v>
+        <v>1.45E-4</v>
       </c>
       <c r="K22" s="1">
-        <v>1.49E-3</v>
+        <v>6.1029999999999997E-5</v>
       </c>
       <c r="L22" s="1">
-        <v>6.734E-4</v>
+        <v>2.5950000000000001E-5</v>
       </c>
       <c r="M22" s="1">
-        <v>3.0249999999999998E-4</v>
+        <v>1.113E-5</v>
       </c>
       <c r="N22" s="1">
-        <v>1.3530000000000001E-4</v>
+        <v>4.8049999999999997E-6</v>
       </c>
       <c r="O22" s="1">
-        <v>6.0350000000000003E-5</v>
+        <v>2.0870000000000001E-6</v>
       </c>
       <c r="P22" s="1">
-        <v>2.6869999999999999E-5</v>
+        <v>9.1019999999999998E-7</v>
       </c>
       <c r="Q22" s="1">
-        <v>1.1950000000000001E-5</v>
+        <v>3.9849999999999998E-7</v>
       </c>
       <c r="R22" s="1">
-        <v>5.3070000000000002E-6</v>
-      </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1.7490000000000001E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>535</v>
       </c>
       <c r="B23" s="1">
-        <v>6.7449999999999996E-2</v>
+        <v>0.22239999999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>0.1242</v>
+        <v>3.5839999999999997E-2</v>
       </c>
       <c r="D23" s="1">
-        <v>0.1605</v>
+        <v>2.989E-2</v>
       </c>
       <c r="E23" s="1">
-        <v>0.1182</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="F23" s="1">
-        <v>7.1720000000000006E-2</v>
+        <v>6.9189999999999998E-3</v>
       </c>
       <c r="G23" s="1">
-        <v>3.9489999999999997E-2</v>
+        <v>3.0639999999999999E-3</v>
       </c>
       <c r="H23" s="1">
-        <v>2.0570000000000001E-2</v>
+        <v>1.346E-3</v>
       </c>
       <c r="I23" s="1">
-        <v>1.0359999999999999E-2</v>
+        <v>5.9380000000000001E-4</v>
       </c>
       <c r="J23" s="1">
-        <v>5.1060000000000003E-3</v>
+        <v>2.6429999999999997E-4</v>
       </c>
       <c r="K23" s="1">
-        <v>2.4819999999999998E-3</v>
+        <v>1.189E-4</v>
       </c>
       <c r="L23" s="1">
-        <v>1.196E-3</v>
+        <v>5.3959999999999998E-5</v>
       </c>
       <c r="M23" s="1">
-        <v>5.7289999999999999E-4</v>
+        <v>2.4700000000000001E-5</v>
       </c>
       <c r="N23" s="1">
-        <v>2.7329999999999998E-4</v>
+        <v>1.1379999999999999E-5</v>
       </c>
       <c r="O23" s="1">
-        <v>1.2999999999999999E-4</v>
+        <v>5.2739999999999998E-6</v>
       </c>
       <c r="P23" s="1">
-        <v>6.1749999999999997E-5</v>
+        <v>2.4549999999999998E-6</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.9289999999999999E-5</v>
+        <v>1.1459999999999999E-6</v>
       </c>
       <c r="R23" s="1">
-        <v>1.3879999999999999E-5</v>
-      </c>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+        <v>5.369E-7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>545</v>
       </c>
       <c r="B24" s="1">
-        <v>6.5759999999999999E-2</v>
+        <v>0.2172</v>
       </c>
       <c r="C24" s="1">
-        <v>0.1211</v>
+        <v>3.8859999999999999E-2</v>
       </c>
       <c r="D24" s="1">
-        <v>0.1671</v>
+        <v>3.4329999999999999E-2</v>
       </c>
       <c r="E24" s="1">
-        <v>0.13039999999999999</v>
+        <v>1.865E-2</v>
       </c>
       <c r="F24" s="1">
-        <v>8.3779999999999993E-2</v>
+        <v>9.1559999999999992E-3</v>
       </c>
       <c r="G24" s="1">
-        <v>4.8840000000000001E-2</v>
+        <v>4.3340000000000002E-3</v>
       </c>
       <c r="H24" s="1">
-        <v>2.6950000000000002E-2</v>
+        <v>2.0309999999999998E-3</v>
       </c>
       <c r="I24" s="1">
-        <v>1.438E-2</v>
+        <v>9.546E-4</v>
       </c>
       <c r="J24" s="1">
-        <v>7.5139999999999998E-3</v>
+        <v>4.5209999999999998E-4</v>
       </c>
       <c r="K24" s="1">
-        <v>3.8739999999999998E-3</v>
+        <v>2.162E-4</v>
       </c>
       <c r="L24" s="1">
-        <v>1.98E-3</v>
+        <v>1.043E-4</v>
       </c>
       <c r="M24" s="1">
-        <v>1.0059999999999999E-3</v>
+        <v>5.0699999999999999E-5</v>
       </c>
       <c r="N24" s="1">
-        <v>5.0929999999999997E-4</v>
+        <v>2.4810000000000001E-5</v>
       </c>
       <c r="O24" s="1">
-        <v>2.5720000000000002E-4</v>
+        <v>1.221E-5</v>
       </c>
       <c r="P24" s="1">
-        <v>1.2960000000000001E-4</v>
+        <v>6.0329999999999997E-6</v>
       </c>
       <c r="Q24" s="1">
-        <v>6.5270000000000004E-5</v>
+        <v>2.9909999999999998E-6</v>
       </c>
       <c r="R24" s="1">
-        <v>3.2830000000000002E-5</v>
-      </c>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1.4869999999999999E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>555</v>
       </c>
       <c r="B25" s="1">
-        <v>6.4610000000000001E-2</v>
+        <v>0.21379999999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>0.11899999999999999</v>
+        <v>4.24E-2</v>
       </c>
       <c r="D25" s="1">
-        <v>0.17430000000000001</v>
+        <v>3.9379999999999998E-2</v>
       </c>
       <c r="E25" s="1">
-        <v>0.14349999999999999</v>
+        <v>2.2880000000000001E-2</v>
       </c>
       <c r="F25" s="1">
-        <v>9.7210000000000005E-2</v>
+        <v>1.1990000000000001E-2</v>
       </c>
       <c r="G25" s="1">
-        <v>5.9760000000000001E-2</v>
+        <v>6.0400000000000002E-3</v>
       </c>
       <c r="H25" s="1">
-        <v>3.4790000000000001E-2</v>
+        <v>3.0079999999999998E-3</v>
       </c>
       <c r="I25" s="1">
-        <v>1.959E-2</v>
+        <v>1.4989999999999999E-3</v>
       </c>
       <c r="J25" s="1">
-        <v>1.081E-2</v>
+        <v>7.5259999999999997E-4</v>
       </c>
       <c r="K25" s="1">
-        <v>5.8869999999999999E-3</v>
+        <v>3.8099999999999999E-4</v>
       </c>
       <c r="L25" s="1">
-        <v>3.179E-3</v>
+        <v>1.9450000000000001E-4</v>
       </c>
       <c r="M25" s="1">
-        <v>1.707E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="N25" s="1">
-        <v>9.1310000000000002E-4</v>
+        <v>5.1780000000000002E-5</v>
       </c>
       <c r="O25" s="1">
-        <v>4.8730000000000003E-4</v>
+        <v>2.694E-5</v>
       </c>
       <c r="P25" s="1">
-        <v>2.5970000000000002E-4</v>
+        <v>1.4080000000000001E-5</v>
       </c>
       <c r="Q25" s="1">
-        <v>1.382E-4</v>
+        <v>7.379E-6</v>
       </c>
       <c r="R25" s="1">
-        <v>7.3490000000000003E-5</v>
-      </c>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3.8789999999999996E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>565</v>
       </c>
       <c r="B26" s="1">
-        <v>6.336E-2</v>
+        <v>0.21010000000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>0.1167</v>
+        <v>4.616E-2</v>
       </c>
       <c r="D26" s="1">
-        <v>0.18049999999999999</v>
+        <v>4.4810000000000003E-2</v>
       </c>
       <c r="E26" s="1">
-        <v>0.15640000000000001</v>
+        <v>2.777E-2</v>
       </c>
       <c r="F26" s="1">
-        <v>0.1115</v>
+        <v>1.5480000000000001E-2</v>
       </c>
       <c r="G26" s="1">
-        <v>7.2120000000000004E-2</v>
+        <v>8.2839999999999997E-3</v>
       </c>
       <c r="H26" s="1">
-        <v>4.419E-2</v>
+        <v>4.3730000000000002E-3</v>
       </c>
       <c r="I26" s="1">
-        <v>2.6210000000000001E-2</v>
+        <v>2.3080000000000002E-3</v>
       </c>
       <c r="J26" s="1">
-        <v>1.524E-2</v>
+        <v>1.224E-3</v>
       </c>
       <c r="K26" s="1">
-        <v>8.744E-3</v>
+        <v>6.5479999999999998E-4</v>
       </c>
       <c r="L26" s="1">
-        <v>4.9760000000000004E-3</v>
+        <v>3.5290000000000001E-4</v>
       </c>
       <c r="M26" s="1">
-        <v>2.8170000000000001E-3</v>
+        <v>1.9149999999999999E-4</v>
       </c>
       <c r="N26" s="1">
-        <v>1.5889999999999999E-3</v>
+        <v>1.0459999999999999E-4</v>
       </c>
       <c r="O26" s="1">
-        <v>8.943E-4</v>
+        <v>5.7410000000000001E-5</v>
       </c>
       <c r="P26" s="1">
-        <v>5.0270000000000002E-4</v>
+        <v>3.1649999999999997E-5</v>
       </c>
       <c r="Q26" s="1">
-        <v>2.8219999999999997E-4</v>
+        <v>1.751E-5</v>
       </c>
       <c r="R26" s="1">
-        <v>1.583E-4</v>
-      </c>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+        <v>9.7059999999999999E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>575</v>
       </c>
       <c r="B27" s="1">
-        <v>6.2789999999999999E-2</v>
+        <v>0.20830000000000001</v>
       </c>
       <c r="C27" s="1">
-        <v>0.1157</v>
+        <v>4.7260000000000003E-2</v>
       </c>
       <c r="D27" s="1">
-        <v>0.1822</v>
+        <v>4.6510000000000003E-2</v>
       </c>
       <c r="E27" s="1">
-        <v>0.16059999999999999</v>
+        <v>2.9420000000000002E-2</v>
       </c>
       <c r="F27" s="1">
-        <v>0.1163</v>
+        <v>1.6729999999999998E-2</v>
       </c>
       <c r="G27" s="1">
-        <v>7.6539999999999997E-2</v>
+        <v>9.1219999999999999E-3</v>
       </c>
       <c r="H27" s="1">
-        <v>4.7690000000000003E-2</v>
+        <v>4.9040000000000004E-3</v>
       </c>
       <c r="I27" s="1">
-        <v>2.8760000000000001E-2</v>
+        <v>2.6329999999999999E-3</v>
       </c>
       <c r="J27" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.421E-3</v>
       </c>
       <c r="K27" s="1">
-        <v>9.9170000000000005E-3</v>
+        <v>7.7289999999999998E-4</v>
       </c>
       <c r="L27" s="1">
-        <v>5.738E-3</v>
+        <v>4.2339999999999999E-4</v>
       </c>
       <c r="M27" s="1">
-        <v>3.3019999999999998E-3</v>
+        <v>2.3360000000000001E-4</v>
       </c>
       <c r="N27" s="1">
-        <v>1.8940000000000001E-3</v>
+        <v>1.2970000000000001E-4</v>
       </c>
       <c r="O27" s="1">
-        <v>1.083E-3</v>
+        <v>7.2349999999999997E-5</v>
       </c>
       <c r="P27" s="1">
-        <v>6.1890000000000003E-4</v>
+        <v>4.053E-5</v>
       </c>
       <c r="Q27" s="1">
-        <v>3.5320000000000002E-4</v>
+        <v>2.2779999999999999E-5</v>
       </c>
       <c r="R27" s="1">
-        <v>2.0139999999999999E-4</v>
-      </c>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1.2840000000000001E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>585</v>
       </c>
       <c r="B28" s="1">
-        <v>6.0699999999999997E-2</v>
+        <v>0.20119999999999999</v>
       </c>
       <c r="C28" s="1">
-        <v>0.1118</v>
+        <v>4.3409999999999997E-2</v>
       </c>
       <c r="D28" s="1">
-        <v>0.17249999999999999</v>
+        <v>4.2009999999999999E-2</v>
       </c>
       <c r="E28" s="1">
-        <v>0.14899999999999999</v>
+        <v>2.5850000000000001E-2</v>
       </c>
       <c r="F28" s="1">
-        <v>0.10589999999999999</v>
+        <v>1.4319999999999999E-2</v>
       </c>
       <c r="G28" s="1">
-        <v>6.8260000000000001E-2</v>
+        <v>7.6099999999999996E-3</v>
       </c>
       <c r="H28" s="1">
-        <v>4.1660000000000003E-2</v>
+        <v>3.9880000000000002E-3</v>
       </c>
       <c r="I28" s="1">
-        <v>2.46E-2</v>
+        <v>2.0890000000000001E-3</v>
       </c>
       <c r="J28" s="1">
-        <v>1.423E-2</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="K28" s="1">
-        <v>8.1189999999999995E-3</v>
+        <v>5.8339999999999998E-4</v>
       </c>
       <c r="L28" s="1">
-        <v>4.594E-3</v>
+        <v>3.1189999999999999E-4</v>
       </c>
       <c r="M28" s="1">
-        <v>2.5850000000000001E-3</v>
+        <v>1.6799999999999999E-4</v>
       </c>
       <c r="N28" s="1">
-        <v>1.449E-3</v>
+        <v>9.1000000000000003E-5</v>
       </c>
       <c r="O28" s="1">
-        <v>8.1010000000000001E-4</v>
+        <v>4.956E-5</v>
       </c>
       <c r="P28" s="1">
-        <v>4.5219999999999999E-4</v>
+        <v>2.711E-5</v>
       </c>
       <c r="Q28" s="1">
-        <v>2.521E-4</v>
+        <v>1.488E-5</v>
       </c>
       <c r="R28" s="1">
-        <v>1.405E-4</v>
-      </c>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+        <v>8.1859999999999992E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>595</v>
       </c>
       <c r="B29" s="1">
-        <v>5.7849999999999999E-2</v>
+        <v>0.19159999999999999</v>
       </c>
       <c r="C29" s="1">
-        <v>0.1065</v>
+        <v>3.8629999999999998E-2</v>
       </c>
       <c r="D29" s="1">
-        <v>0.1593</v>
+        <v>3.6450000000000003E-2</v>
       </c>
       <c r="E29" s="1">
-        <v>0.13389999999999999</v>
+        <v>2.1610000000000001E-2</v>
       </c>
       <c r="F29" s="1">
-        <v>9.2579999999999996E-2</v>
+        <v>1.155E-2</v>
       </c>
       <c r="G29" s="1">
-        <v>5.8069999999999997E-2</v>
+        <v>5.9259999999999998E-3</v>
       </c>
       <c r="H29" s="1">
-        <v>3.4459999999999998E-2</v>
+        <v>3.0010000000000002E-3</v>
       </c>
       <c r="I29" s="1">
-        <v>1.9769999999999999E-2</v>
+        <v>1.519E-3</v>
       </c>
       <c r="J29" s="1">
-        <v>1.11E-2</v>
+        <v>7.7329999999999999E-4</v>
       </c>
       <c r="K29" s="1">
-        <v>6.149E-3</v>
+        <v>3.968E-4</v>
       </c>
       <c r="L29" s="1">
-        <v>3.375E-3</v>
+        <v>2.052E-4</v>
       </c>
       <c r="M29" s="1">
-        <v>1.841E-3</v>
+        <v>1.069E-4</v>
       </c>
       <c r="N29" s="1">
-        <v>1.0009999999999999E-3</v>
+        <v>5.6079999999999998E-5</v>
       </c>
       <c r="O29" s="1">
-        <v>5.4239999999999996E-4</v>
+        <v>2.957E-5</v>
       </c>
       <c r="P29" s="1">
-        <v>2.9339999999999998E-4</v>
+        <v>1.5659999999999999E-5</v>
       </c>
       <c r="Q29" s="1">
-        <v>1.585E-4</v>
+        <v>8.32E-6</v>
       </c>
       <c r="R29" s="1">
-        <v>8.5580000000000004E-5</v>
-      </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+        <v>4.4329999999999997E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>605</v>
       </c>
       <c r="B30" s="1">
-        <v>5.9080000000000001E-2</v>
+        <v>0.19520000000000001</v>
       </c>
       <c r="C30" s="1">
-        <v>0.10879999999999999</v>
+        <v>3.2640000000000002E-2</v>
       </c>
       <c r="D30" s="1">
-        <v>0.1469</v>
+        <v>2.7990000000000001E-2</v>
       </c>
       <c r="E30" s="1">
-        <v>0.1118</v>
+        <v>1.4590000000000001E-2</v>
       </c>
       <c r="F30" s="1">
-        <v>7.0050000000000001E-2</v>
+        <v>6.8900000000000003E-3</v>
       </c>
       <c r="G30" s="1">
-        <v>3.9759999999999997E-2</v>
+        <v>3.137E-3</v>
       </c>
       <c r="H30" s="1">
-        <v>2.1329999999999998E-2</v>
+        <v>1.413E-3</v>
       </c>
       <c r="I30" s="1">
-        <v>1.1050000000000001E-2</v>
+        <v>6.3809999999999995E-4</v>
       </c>
       <c r="J30" s="1">
-        <v>5.5960000000000003E-3</v>
+        <v>2.9030000000000001E-4</v>
       </c>
       <c r="K30" s="1">
-        <v>2.7929999999999999E-3</v>
+        <v>1.3329999999999999E-4</v>
       </c>
       <c r="L30" s="1">
-        <v>1.3810000000000001E-3</v>
+        <v>6.1760000000000005E-5</v>
       </c>
       <c r="M30" s="1">
-        <v>6.7790000000000005E-4</v>
+        <v>2.885E-5</v>
       </c>
       <c r="N30" s="1">
-        <v>3.3139999999999998E-4</v>
+        <v>1.3570000000000001E-5</v>
       </c>
       <c r="O30" s="1">
-        <v>1.615E-4</v>
+        <v>6.4219999999999997E-6</v>
       </c>
       <c r="P30" s="1">
-        <v>7.8540000000000004E-5</v>
+        <v>3.0529999999999998E-6</v>
       </c>
       <c r="Q30" s="1">
-        <v>3.8139999999999997E-5</v>
+        <v>1.4559999999999999E-6</v>
       </c>
       <c r="R30" s="1">
-        <v>1.8499999999999999E-5</v>
-      </c>
-      <c r="S30" s="1"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+        <v>6.9670000000000004E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>615</v>
       </c>
       <c r="B31" s="1">
-        <v>5.7279999999999998E-2</v>
+        <v>0.18920000000000001</v>
       </c>
       <c r="C31" s="1">
-        <v>0.10539999999999999</v>
+        <v>3.1559999999999998E-2</v>
       </c>
       <c r="D31" s="1">
-        <v>0.14269999999999999</v>
+        <v>2.7269999999999999E-2</v>
       </c>
       <c r="E31" s="1">
-        <v>0.10970000000000001</v>
+        <v>1.4370000000000001E-2</v>
       </c>
       <c r="F31" s="1">
-        <v>6.9449999999999998E-2</v>
+        <v>6.8599999999999998E-3</v>
       </c>
       <c r="G31" s="1">
-        <v>3.9849999999999997E-2</v>
+        <v>3.156E-3</v>
       </c>
       <c r="H31" s="1">
-        <v>2.1610000000000001E-2</v>
+        <v>1.436E-3</v>
       </c>
       <c r="I31" s="1">
-        <v>1.1310000000000001E-2</v>
+        <v>6.5399999999999996E-4</v>
       </c>
       <c r="J31" s="1">
-        <v>5.7860000000000003E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="K31" s="1">
-        <v>2.9169999999999999E-3</v>
+        <v>1.3889999999999999E-4</v>
       </c>
       <c r="L31" s="1">
-        <v>1.456E-3</v>
+        <v>6.4859999999999999E-5</v>
       </c>
       <c r="M31" s="1">
-        <v>7.2130000000000002E-4</v>
+        <v>3.0540000000000002E-5</v>
       </c>
       <c r="N31" s="1">
-        <v>3.5589999999999998E-4</v>
+        <v>1.448E-5</v>
       </c>
       <c r="O31" s="1">
-        <v>1.75E-4</v>
+        <v>6.9029999999999998E-6</v>
       </c>
       <c r="P31" s="1">
-        <v>8.5870000000000003E-5</v>
+        <v>3.3069999999999998E-6</v>
       </c>
       <c r="Q31" s="1">
-        <v>4.2070000000000002E-5</v>
+        <v>1.59E-6</v>
       </c>
       <c r="R31" s="1">
-        <v>2.0590000000000001E-5</v>
-      </c>
-      <c r="S31" s="1"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+        <v>7.6690000000000002E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>625</v>
       </c>
       <c r="B32" s="1">
-        <v>5.6230000000000002E-2</v>
+        <v>0.1857</v>
       </c>
       <c r="C32" s="1">
-        <v>0.10349999999999999</v>
+        <v>2.9420000000000002E-2</v>
       </c>
       <c r="D32" s="1">
-        <v>0.1363</v>
+        <v>2.4840000000000001E-2</v>
       </c>
       <c r="E32" s="1">
-        <v>0.1027</v>
+        <v>1.274E-2</v>
       </c>
       <c r="F32" s="1">
-        <v>6.3780000000000003E-2</v>
+        <v>5.9360000000000003E-3</v>
       </c>
       <c r="G32" s="1">
-        <v>3.5929999999999997E-2</v>
+        <v>2.6649999999999998E-3</v>
       </c>
       <c r="H32" s="1">
-        <v>1.9109999999999999E-2</v>
+        <v>1.1839999999999999E-3</v>
       </c>
       <c r="I32" s="1">
-        <v>9.8119999999999995E-3</v>
+        <v>5.2660000000000001E-4</v>
       </c>
       <c r="J32" s="1">
-        <v>4.921E-3</v>
+        <v>2.3589999999999999E-4</v>
       </c>
       <c r="K32" s="1">
-        <v>2.431E-3</v>
+        <v>1.066E-4</v>
       </c>
       <c r="L32" s="1">
-        <v>1.188E-3</v>
+        <v>4.8640000000000002E-5</v>
       </c>
       <c r="M32" s="1">
-        <v>5.7649999999999997E-4</v>
+        <v>2.2370000000000001E-5</v>
       </c>
       <c r="N32" s="1">
-        <v>2.7839999999999999E-4</v>
+        <v>1.0360000000000001E-5</v>
       </c>
       <c r="O32" s="1">
-        <v>1.34E-4</v>
+        <v>4.826E-6</v>
       </c>
       <c r="P32" s="1">
-        <v>6.4339999999999997E-5</v>
+        <v>2.26E-6</v>
       </c>
       <c r="Q32" s="1">
-        <v>3.0840000000000003E-5</v>
+        <v>1.062E-6</v>
       </c>
       <c r="R32" s="1">
-        <v>1.4769999999999999E-5</v>
-      </c>
-      <c r="S32" s="1"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+        <v>5.0060000000000002E-7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>635</v>
       </c>
       <c r="B33" s="1">
-        <v>5.5190000000000003E-2</v>
+        <v>0.18210000000000001</v>
       </c>
       <c r="C33" s="1">
-        <v>0.1016</v>
+        <v>2.6980000000000001E-2</v>
       </c>
       <c r="D33" s="1">
-        <v>0.12859999999999999</v>
+        <v>2.2030000000000001E-2</v>
       </c>
       <c r="E33" s="1">
-        <v>9.4130000000000005E-2</v>
+        <v>1.0880000000000001E-2</v>
       </c>
       <c r="F33" s="1">
-        <v>5.6890000000000003E-2</v>
+        <v>4.8890000000000001E-3</v>
       </c>
       <c r="G33" s="1">
-        <v>3.1179999999999999E-2</v>
+        <v>2.1210000000000001E-3</v>
       </c>
       <c r="H33" s="1">
-        <v>1.6129999999999999E-2</v>
+        <v>9.1060000000000002E-4</v>
       </c>
       <c r="I33" s="1">
-        <v>8.0510000000000009E-3</v>
+        <v>3.9159999999999998E-4</v>
       </c>
       <c r="J33" s="1">
-        <v>3.9240000000000004E-3</v>
+        <v>1.696E-4</v>
       </c>
       <c r="K33" s="1">
-        <v>1.882E-3</v>
+        <v>7.4159999999999995E-5</v>
       </c>
       <c r="L33" s="1">
-        <v>8.9280000000000002E-4</v>
+        <v>3.2719999999999998E-5</v>
       </c>
       <c r="M33" s="1">
-        <v>4.2039999999999997E-4</v>
+        <v>1.456E-5</v>
       </c>
       <c r="N33" s="1">
-        <v>1.9689999999999999E-4</v>
+        <v>6.5250000000000002E-6</v>
       </c>
       <c r="O33" s="1">
-        <v>9.1910000000000006E-5</v>
+        <v>2.942E-6</v>
       </c>
       <c r="P33" s="1">
-        <v>4.278E-5</v>
+        <v>1.333E-6</v>
       </c>
       <c r="Q33" s="1">
-        <v>1.9879999999999999E-5</v>
+        <v>6.0670000000000005E-7</v>
       </c>
       <c r="R33" s="1">
-        <v>9.2250000000000006E-6</v>
-      </c>
-      <c r="S33" s="1"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2.769E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>645</v>
       </c>
       <c r="B34" s="1">
-        <v>5.3109999999999997E-2</v>
+        <v>0.17519999999999999</v>
       </c>
       <c r="C34" s="1">
-        <v>9.7739999999999994E-2</v>
+        <v>2.496E-2</v>
       </c>
       <c r="D34" s="1">
-        <v>0.1212</v>
+        <v>2.01E-2</v>
       </c>
       <c r="E34" s="1">
-        <v>8.7830000000000005E-2</v>
+        <v>9.7929999999999996E-3</v>
       </c>
       <c r="F34" s="1">
-        <v>5.2679999999999998E-2</v>
+        <v>4.352E-3</v>
       </c>
       <c r="G34" s="1">
-        <v>2.8670000000000001E-2</v>
+        <v>1.8680000000000001E-3</v>
       </c>
       <c r="H34" s="1">
-        <v>1.473E-2</v>
+        <v>7.9290000000000003E-4</v>
       </c>
       <c r="I34" s="1">
-        <v>7.2950000000000003E-3</v>
+        <v>3.3710000000000001E-4</v>
       </c>
       <c r="J34" s="1">
-        <v>3.5270000000000002E-3</v>
+        <v>1.4430000000000001E-4</v>
       </c>
       <c r="K34" s="1">
-        <v>1.6770000000000001E-3</v>
+        <v>6.2360000000000006E-5</v>
       </c>
       <c r="L34" s="1">
-        <v>7.8879999999999998E-4</v>
+        <v>2.7189999999999999E-5</v>
       </c>
       <c r="M34" s="1">
-        <v>3.68E-4</v>
+        <v>1.1960000000000001E-5</v>
       </c>
       <c r="N34" s="1">
-        <v>1.707E-4</v>
+        <v>5.2959999999999998E-6</v>
       </c>
       <c r="O34" s="1">
-        <v>7.8919999999999997E-5</v>
+        <v>2.3609999999999999E-6</v>
       </c>
       <c r="P34" s="1">
-        <v>3.6390000000000002E-5</v>
+        <v>1.0580000000000001E-6</v>
       </c>
       <c r="Q34" s="1">
-        <v>1.6739999999999999E-5</v>
+        <v>4.7609999999999998E-7</v>
       </c>
       <c r="R34" s="1">
-        <v>7.6920000000000002E-6</v>
-      </c>
-      <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2.149E-7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>655</v>
       </c>
       <c r="B35" s="1">
-        <v>5.0439999999999999E-2</v>
+        <v>0.1663</v>
       </c>
       <c r="C35" s="1">
-        <v>9.2810000000000004E-2</v>
+        <v>2.1069999999999998E-2</v>
       </c>
       <c r="D35" s="1">
-        <v>0.106</v>
+        <v>1.5570000000000001E-2</v>
       </c>
       <c r="E35" s="1">
-        <v>7.1480000000000002E-2</v>
+        <v>6.9239999999999996E-3</v>
       </c>
       <c r="F35" s="1">
-        <v>3.9960000000000002E-2</v>
+        <v>2.823E-3</v>
       </c>
       <c r="G35" s="1">
-        <v>2.0279999999999999E-2</v>
+        <v>1.1150000000000001E-3</v>
       </c>
       <c r="H35" s="1">
-        <v>9.7099999999999999E-3</v>
+        <v>4.3689999999999999E-4</v>
       </c>
       <c r="I35" s="1">
-        <v>4.4799999999999996E-3</v>
+        <v>1.718E-4</v>
       </c>
       <c r="J35" s="1">
-        <v>2.0170000000000001E-3</v>
+        <v>6.8120000000000005E-5</v>
       </c>
       <c r="K35" s="1">
-        <v>8.9240000000000001E-4</v>
+        <v>2.73E-5</v>
       </c>
       <c r="L35" s="1">
-        <v>3.903E-4</v>
+        <v>1.1070000000000001E-5</v>
       </c>
       <c r="M35" s="1">
-        <v>1.693E-4</v>
+        <v>4.5310000000000003E-6</v>
       </c>
       <c r="N35" s="1">
-        <v>7.3009999999999994E-5</v>
+        <v>1.872E-6</v>
       </c>
       <c r="O35" s="1">
-        <v>3.1359999999999998E-5</v>
+        <v>7.7980000000000003E-7</v>
       </c>
       <c r="P35" s="1">
-        <v>1.343E-5</v>
+        <v>3.2749999999999999E-7</v>
       </c>
       <c r="Q35" s="1">
-        <v>5.7420000000000003E-6</v>
+        <v>1.3860000000000001E-7</v>
       </c>
       <c r="R35" s="1">
-        <v>2.4530000000000001E-6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+        <v>5.9120000000000003E-8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>665</v>
       </c>
       <c r="B36" s="1">
-        <v>5.2310000000000002E-2</v>
+        <v>0.17230000000000001</v>
       </c>
       <c r="C36" s="1">
-        <v>9.6250000000000002E-2</v>
+        <v>1.9130000000000001E-2</v>
       </c>
       <c r="D36" s="1">
-        <v>9.5619999999999997E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="E36" s="1">
-        <v>5.6480000000000002E-2</v>
+        <v>4.5009999999999998E-3</v>
       </c>
       <c r="F36" s="1">
-        <v>2.7709999999999999E-2</v>
+        <v>1.585E-3</v>
       </c>
       <c r="G36" s="1">
-        <v>1.234E-2</v>
+        <v>5.4830000000000005E-4</v>
       </c>
       <c r="H36" s="1">
-        <v>5.1900000000000002E-3</v>
+        <v>1.9090000000000001E-4</v>
       </c>
       <c r="I36" s="1">
-        <v>2.1029999999999998E-3</v>
+        <v>6.7819999999999998E-5</v>
       </c>
       <c r="J36" s="1">
-        <v>8.3180000000000005E-4</v>
+        <v>2.4830000000000001E-5</v>
       </c>
       <c r="K36" s="1">
-        <v>3.2390000000000001E-4</v>
+        <v>9.4239999999999999E-6</v>
       </c>
       <c r="L36" s="1">
-        <v>1.249E-4</v>
+        <v>3.7249999999999999E-6</v>
       </c>
       <c r="M36" s="1">
-        <v>4.7889999999999997E-5</v>
+        <v>1.539E-6</v>
       </c>
       <c r="N36" s="1">
-        <v>1.8349999999999999E-5</v>
+        <v>6.652E-7</v>
       </c>
       <c r="O36" s="1">
-        <v>7.0450000000000003E-6</v>
+        <v>3.0050000000000002E-7</v>
       </c>
       <c r="P36" s="1">
-        <v>2.7240000000000001E-6</v>
+        <v>1.4149999999999999E-7</v>
       </c>
       <c r="Q36" s="1">
-        <v>1.065E-6</v>
+        <v>6.9020000000000005E-8</v>
       </c>
       <c r="R36" s="1">
-        <v>4.2329999999999999E-7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3.4690000000000002E-8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>675</v>
       </c>
       <c r="B37" s="1">
-        <v>5.108E-2</v>
+        <v>0.16850000000000001</v>
       </c>
       <c r="C37" s="1">
-        <v>9.4009999999999996E-2</v>
+        <v>2.07E-2</v>
       </c>
       <c r="D37" s="1">
-        <v>9.1800000000000007E-2</v>
+        <v>1.2030000000000001E-2</v>
       </c>
       <c r="E37" s="1">
-        <v>5.3560000000000003E-2</v>
+        <v>4.5250000000000004E-3</v>
       </c>
       <c r="F37" s="1">
-        <v>2.6009999999999998E-2</v>
+        <v>1.616E-3</v>
       </c>
       <c r="G37" s="1">
-        <v>1.149E-2</v>
+        <v>5.7709999999999999E-4</v>
       </c>
       <c r="H37" s="1">
-        <v>4.7980000000000002E-3</v>
+        <v>2.118E-4</v>
       </c>
       <c r="I37" s="1">
-        <v>1.936E-3</v>
+        <v>8.1119999999999996E-5</v>
       </c>
       <c r="J37" s="1">
-        <v>7.6480000000000005E-4</v>
+        <v>3.2700000000000002E-5</v>
       </c>
       <c r="K37" s="1">
-        <v>2.987E-4</v>
+        <v>1.3900000000000001E-5</v>
       </c>
       <c r="L37" s="1">
-        <v>1.1629999999999999E-4</v>
+        <v>6.2169999999999999E-6</v>
       </c>
       <c r="M37" s="1">
-        <v>4.5399999999999999E-5</v>
+        <v>2.909E-6</v>
       </c>
       <c r="N37" s="1">
-        <v>1.7900000000000001E-5</v>
+        <v>1.4130000000000001E-6</v>
       </c>
       <c r="O37" s="1">
-        <v>7.1810000000000004E-6</v>
+        <v>7.0780000000000002E-7</v>
       </c>
       <c r="P37" s="1">
-        <v>2.9500000000000001E-6</v>
+        <v>3.6300000000000001E-7</v>
       </c>
       <c r="Q37" s="1">
-        <v>1.249E-6</v>
+        <v>1.896E-7</v>
       </c>
       <c r="R37" s="1">
-        <v>5.4750000000000005E-7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.004E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>685</v>
       </c>
       <c r="B38" s="1">
-        <v>4.6390000000000001E-2</v>
+        <v>0.15329999999999999</v>
       </c>
       <c r="C38" s="1">
-        <v>8.5400000000000004E-2</v>
+        <v>2.1610000000000001E-2</v>
       </c>
       <c r="D38" s="1">
-        <v>8.5940000000000003E-2</v>
+        <v>1.2449999999999999E-2</v>
       </c>
       <c r="E38" s="1">
-        <v>5.1909999999999998E-2</v>
+        <v>4.875E-3</v>
       </c>
       <c r="F38" s="1">
-        <v>2.615E-2</v>
+        <v>1.8259999999999999E-3</v>
       </c>
       <c r="G38" s="1">
-        <v>1.1990000000000001E-2</v>
+        <v>6.8630000000000004E-4</v>
       </c>
       <c r="H38" s="1">
-        <v>5.2050000000000004E-3</v>
+        <v>2.652E-4</v>
       </c>
       <c r="I38" s="1">
-        <v>2.1840000000000002E-3</v>
+        <v>1.0670000000000001E-4</v>
       </c>
       <c r="J38" s="1">
-        <v>8.9789999999999998E-4</v>
+        <v>4.4929999999999998E-5</v>
       </c>
       <c r="K38" s="1">
-        <v>3.6519999999999999E-4</v>
+        <v>1.982E-5</v>
       </c>
       <c r="L38" s="1">
-        <v>1.4799999999999999E-4</v>
+        <v>9.1249999999999999E-6</v>
       </c>
       <c r="M38" s="1">
-        <v>6.0229999999999998E-5</v>
+        <v>4.3619999999999999E-6</v>
       </c>
       <c r="N38" s="1">
-        <v>2.474E-5</v>
+        <v>2.1509999999999998E-6</v>
       </c>
       <c r="O38" s="1">
-        <v>1.0319999999999999E-5</v>
+        <v>1.088E-6</v>
       </c>
       <c r="P38" s="1">
-        <v>4.3959999999999999E-6</v>
+        <v>5.6130000000000003E-7</v>
       </c>
       <c r="Q38" s="1">
-        <v>1.922E-6</v>
+        <v>2.9419999999999997E-7</v>
       </c>
       <c r="R38" s="1">
-        <v>8.6550000000000001E-7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.561E-7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>695</v>
       </c>
       <c r="B39" s="1">
-        <v>4.4450000000000003E-2</v>
+        <v>0.1467</v>
       </c>
       <c r="C39" s="1">
-        <v>8.1809999999999994E-2</v>
+        <v>1.8919999999999999E-2</v>
       </c>
       <c r="D39" s="1">
-        <v>8.1979999999999997E-2</v>
+        <v>1.128E-2</v>
       </c>
       <c r="E39" s="1">
-        <v>5.0020000000000002E-2</v>
+        <v>4.4530000000000004E-3</v>
       </c>
       <c r="F39" s="1">
-        <v>2.5510000000000001E-2</v>
+        <v>1.6670000000000001E-3</v>
       </c>
       <c r="G39" s="1">
-        <v>1.1849999999999999E-2</v>
+        <v>6.2060000000000001E-4</v>
       </c>
       <c r="H39" s="1">
-        <v>5.202E-3</v>
+        <v>2.354E-4</v>
       </c>
       <c r="I39" s="1">
-        <v>2.2049999999999999E-3</v>
+        <v>9.2200000000000005E-5</v>
       </c>
       <c r="J39" s="1">
-        <v>9.1379999999999999E-4</v>
+        <v>3.7599999999999999E-5</v>
       </c>
       <c r="K39" s="1">
-        <v>3.7350000000000003E-4</v>
+        <v>1.6019999999999999E-5</v>
       </c>
       <c r="L39" s="1">
-        <v>1.516E-4</v>
+        <v>7.1250000000000004E-6</v>
       </c>
       <c r="M39" s="1">
-        <v>6.1480000000000001E-5</v>
+        <v>3.3000000000000002E-6</v>
       </c>
       <c r="N39" s="1">
-        <v>2.5020000000000001E-5</v>
+        <v>1.584E-6</v>
       </c>
       <c r="O39" s="1">
-        <v>1.028E-5</v>
+        <v>7.8339999999999999E-7</v>
       </c>
       <c r="P39" s="1">
-        <v>4.2819999999999998E-6</v>
+        <v>3.9719999999999998E-7</v>
       </c>
       <c r="Q39" s="1">
-        <v>1.818E-6</v>
+        <v>2.054E-7</v>
       </c>
       <c r="R39" s="1">
-        <v>7.9049999999999999E-7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.0789999999999999E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>705</v>
       </c>
       <c r="B40" s="1">
-        <v>4.4659999999999998E-2</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="C40" s="1">
-        <v>8.2159999999999997E-2</v>
+        <v>1.422E-2</v>
       </c>
       <c r="D40" s="1">
-        <v>7.3270000000000002E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E40" s="1">
-        <v>4.0379999999999999E-2</v>
+        <v>2.7980000000000001E-3</v>
       </c>
       <c r="F40" s="1">
-        <v>1.865E-2</v>
+        <v>9.2360000000000001E-4</v>
       </c>
       <c r="G40" s="1">
-        <v>7.8429999999999993E-3</v>
+        <v>3.0249999999999998E-4</v>
       </c>
       <c r="H40" s="1">
-        <v>3.117E-3</v>
+        <v>1.01E-4</v>
       </c>
       <c r="I40" s="1">
-        <v>1.194E-3</v>
+        <v>3.4999999999999997E-5</v>
       </c>
       <c r="J40" s="1">
-        <v>4.4670000000000002E-4</v>
+        <v>1.277E-5</v>
       </c>
       <c r="K40" s="1">
-        <v>1.6479999999999999E-4</v>
+        <v>4.9520000000000002E-6</v>
       </c>
       <c r="L40" s="1">
-        <v>6.0260000000000002E-5</v>
+        <v>2.0480000000000001E-6</v>
       </c>
       <c r="M40" s="1">
-        <v>2.1999999999999999E-5</v>
+        <v>9.0269999999999995E-7</v>
       </c>
       <c r="N40" s="1">
-        <v>8.0739999999999993E-6</v>
+        <v>4.2030000000000002E-7</v>
       </c>
       <c r="O40" s="1">
-        <v>2.999E-6</v>
+        <v>2.0480000000000001E-7</v>
       </c>
       <c r="P40" s="1">
-        <v>1.1379999999999999E-6</v>
+        <v>1.034E-7</v>
       </c>
       <c r="Q40" s="1">
-        <v>4.447E-7</v>
+        <v>5.3589999999999999E-8</v>
       </c>
       <c r="R40" s="1">
-        <v>1.807E-7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2.8290000000000001E-8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>715</v>
       </c>
       <c r="B41" s="1">
-        <v>4.0550000000000003E-2</v>
+        <v>0.1333</v>
       </c>
       <c r="C41" s="1">
-        <v>7.4579999999999994E-2</v>
+        <v>9.3670000000000003E-3</v>
       </c>
       <c r="D41" s="1">
-        <v>5.0319999999999997E-2</v>
+        <v>3.8800000000000002E-3</v>
       </c>
       <c r="E41" s="1">
-        <v>2.1100000000000001E-2</v>
+        <v>9.7619999999999998E-4</v>
       </c>
       <c r="F41" s="1">
-        <v>7.4219999999999998E-3</v>
+        <v>2.3440000000000001E-4</v>
       </c>
       <c r="G41" s="1">
-        <v>2.3779999999999999E-3</v>
+        <v>5.6719999999999999E-5</v>
       </c>
       <c r="H41" s="1">
-        <v>7.1989999999999999E-4</v>
+        <v>1.438E-5</v>
       </c>
       <c r="I41" s="1">
-        <v>2.1019999999999999E-4</v>
+        <v>3.9890000000000003E-6</v>
       </c>
       <c r="J41" s="1">
-        <v>6.0019999999999998E-5</v>
+        <v>1.263E-6</v>
       </c>
       <c r="K41" s="1">
-        <v>1.696E-5</v>
+        <v>4.6829999999999998E-7</v>
       </c>
       <c r="L41" s="1">
-        <v>4.8099999999999997E-6</v>
+        <v>2.008E-7</v>
       </c>
       <c r="M41" s="1">
-        <v>1.393E-6</v>
+        <v>9.5710000000000001E-8</v>
       </c>
       <c r="N41" s="1">
-        <v>4.235E-7</v>
+        <v>4.8699999999999999E-8</v>
       </c>
       <c r="O41" s="1">
-        <v>1.4000000000000001E-7</v>
+        <v>2.571E-8</v>
       </c>
       <c r="P41" s="1">
-        <v>5.1989999999999998E-8</v>
+        <v>1.386E-8</v>
       </c>
       <c r="Q41" s="1">
-        <v>2.1889999999999999E-8</v>
+        <v>7.5610000000000007E-9</v>
       </c>
       <c r="R41" s="1">
-        <v>1.027E-8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+        <v>4.1519999999999997E-9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>725</v>
       </c>
       <c r="B42" s="1">
-        <v>3.6240000000000001E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="C42" s="1">
-        <v>6.6650000000000001E-2</v>
+        <v>5.9690000000000003E-3</v>
       </c>
       <c r="D42" s="1">
-        <v>2.7619999999999999E-2</v>
+        <v>1.3699999999999999E-3</v>
       </c>
       <c r="E42" s="1">
-        <v>7.1110000000000001E-3</v>
+        <v>1.9570000000000001E-4</v>
       </c>
       <c r="F42" s="1">
-        <v>1.537E-3</v>
+        <v>2.781E-5</v>
       </c>
       <c r="G42" s="1">
-        <v>3.032E-4</v>
+        <v>4.3939999999999998E-6</v>
       </c>
       <c r="H42" s="1">
-        <v>5.6789999999999997E-5</v>
+        <v>9.2719999999999999E-7</v>
       </c>
       <c r="I42" s="1">
-        <v>1.042E-5</v>
+        <v>3.0569999999999999E-7</v>
       </c>
       <c r="J42" s="1">
-        <v>1.9649999999999998E-6</v>
+        <v>1.364E-7</v>
       </c>
       <c r="K42" s="1">
-        <v>4.1940000000000001E-7</v>
+        <v>7.0480000000000006E-8</v>
       </c>
       <c r="L42" s="1">
-        <v>1.173E-7</v>
+        <v>3.8239999999999997E-8</v>
       </c>
       <c r="M42" s="1">
-        <v>4.5540000000000003E-8</v>
+        <v>2.1089999999999999E-8</v>
       </c>
       <c r="N42" s="1">
-        <v>2.2029999999999999E-8</v>
+        <v>1.1700000000000001E-8</v>
       </c>
       <c r="O42" s="1">
-        <v>1.172E-8</v>
+        <v>6.5169999999999997E-9</v>
       </c>
       <c r="P42" s="1">
-        <v>6.4460000000000003E-9</v>
+        <v>3.6359999999999999E-9</v>
       </c>
       <c r="Q42" s="1">
-        <v>3.5849999999999999E-9</v>
+        <v>2.032E-9</v>
       </c>
       <c r="R42" s="1">
-        <v>2.0019999999999999E-9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.1369999999999999E-9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>735</v>
       </c>
       <c r="B43" s="1">
-        <v>3.986E-2</v>
+        <v>0.1308</v>
       </c>
       <c r="C43" s="1">
-        <v>7.3289999999999994E-2</v>
+        <v>4.7910000000000001E-3</v>
       </c>
       <c r="D43" s="1">
-        <v>1.5689999999999999E-2</v>
+        <v>4.9410000000000003E-4</v>
       </c>
       <c r="E43" s="1">
-        <v>2.0820000000000001E-3</v>
+        <v>3.43E-5</v>
       </c>
       <c r="F43" s="1">
-        <v>2.33E-4</v>
+        <v>2.9510000000000002E-6</v>
       </c>
       <c r="G43" s="1">
-        <v>2.421E-5</v>
+        <v>5.5540000000000001E-7</v>
       </c>
       <c r="H43" s="1">
-        <v>2.6070000000000002E-6</v>
+        <v>2.2700000000000001E-7</v>
       </c>
       <c r="I43" s="1">
-        <v>3.939E-7</v>
+        <v>1.172E-7</v>
       </c>
       <c r="J43" s="1">
-        <v>1.1880000000000001E-7</v>
+        <v>6.3119999999999999E-8</v>
       </c>
       <c r="K43" s="1">
-        <v>5.6099999999999999E-8</v>
+        <v>3.4359999999999998E-8</v>
       </c>
       <c r="L43" s="1">
-        <v>2.9910000000000001E-8</v>
+        <v>1.88E-8</v>
       </c>
       <c r="M43" s="1">
-        <v>1.6339999999999999E-8</v>
+        <v>1.0309999999999999E-8</v>
       </c>
       <c r="N43" s="1">
-        <v>8.9749999999999993E-9</v>
+        <v>5.6690000000000002E-9</v>
       </c>
       <c r="O43" s="1">
-        <v>4.9399999999999999E-9</v>
+        <v>3.1209999999999999E-9</v>
       </c>
       <c r="P43" s="1">
-        <v>2.7229999999999998E-9</v>
+        <v>1.721E-9</v>
       </c>
       <c r="Q43" s="1">
-        <v>1.502E-9</v>
+        <v>9.4950000000000008E-10</v>
       </c>
       <c r="R43" s="1">
-        <v>8.2940000000000005E-10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+        <v>5.2430000000000004E-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>745</v>
       </c>
       <c r="B44" s="1">
-        <v>4.2180000000000002E-2</v>
+        <v>0.1384</v>
       </c>
       <c r="C44" s="1">
-        <v>7.7560000000000004E-2</v>
+        <v>4.4339999999999996E-3</v>
       </c>
       <c r="D44" s="1">
-        <v>1.18E-2</v>
+        <v>3.0420000000000002E-4</v>
       </c>
       <c r="E44" s="1">
-        <v>1.116E-3</v>
+        <v>1.4939999999999999E-5</v>
       </c>
       <c r="F44" s="1">
-        <v>8.9480000000000004E-5</v>
+        <v>1.192E-6</v>
       </c>
       <c r="G44" s="1">
-        <v>6.878E-6</v>
+        <v>3.129E-7</v>
       </c>
       <c r="H44" s="1">
-        <v>6.6909999999999998E-7</v>
+        <v>1.4770000000000001E-7</v>
       </c>
       <c r="I44" s="1">
-        <v>1.48E-7</v>
+        <v>7.6739999999999998E-8</v>
       </c>
       <c r="J44" s="1">
-        <v>6.4630000000000004E-8</v>
+        <v>4.0569999999999999E-8</v>
       </c>
       <c r="K44" s="1">
-        <v>3.3519999999999998E-8</v>
+        <v>2.1600000000000002E-8</v>
       </c>
       <c r="L44" s="1">
-        <v>1.7870000000000001E-8</v>
+        <v>1.1560000000000001E-8</v>
       </c>
       <c r="M44" s="1">
-        <v>9.5879999999999996E-9</v>
+        <v>6.2060000000000003E-9</v>
       </c>
       <c r="N44" s="1">
-        <v>5.1600000000000004E-9</v>
+        <v>3.3419999999999998E-9</v>
       </c>
       <c r="O44" s="1">
-        <v>2.783E-9</v>
+        <v>1.8030000000000001E-9</v>
       </c>
       <c r="P44" s="1">
-        <v>1.504E-9</v>
+        <v>9.7490000000000001E-10</v>
       </c>
       <c r="Q44" s="1">
-        <v>8.1389999999999995E-10</v>
+        <v>5.2779999999999998E-10</v>
       </c>
       <c r="R44" s="1">
-        <v>4.4099999999999998E-10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2.8610000000000003E-10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D64" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/figXX_compviz/hydrolight/Hydrolight_BrownWater.xlsx
+++ b/figXX_compviz/hydrolight/Hydrolight_BrownWater.xlsx
@@ -33965,7 +33965,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R30" sqref="R30"/>
+      <selection pane="topRight" sqref="A1:R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
